--- a/lab-4.xlsx
+++ b/lab-4.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\MO-Labs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{658BCA5E-58B8-446F-9829-B71D6772AD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B448386-67D8-4ABA-ABCD-AF775C0AA9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="348" windowWidth="30936" windowHeight="17040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="84">
   <si>
     <t>1)</t>
   </si>
@@ -231,15 +231,6 @@
     <t>Не менее:</t>
   </si>
   <si>
-    <t>Выберем приемлемые решения при заданных условиях.</t>
-  </si>
-  <si>
-    <t>В нашем случае такое решение только одно:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> А. Татьяна.</t>
-  </si>
-  <si>
     <t>Сравнение по всем критериям</t>
   </si>
   <si>
@@ -276,12 +267,6 @@
     <t>Нормир.</t>
   </si>
   <si>
-    <t>Подсчёт через матрицы</t>
-  </si>
-  <si>
-    <t>Если сначала посчитать значения объединённого критерия, а потом их нормалиовать, то результаты различаются</t>
-  </si>
-  <si>
     <t>Матрица для критерия 1</t>
   </si>
   <si>
@@ -297,7 +282,10 @@
     <t>Оценка приоритетов критериев</t>
   </si>
   <si>
-    <t>*Пример</t>
+    <t>Отн. согл.</t>
+  </si>
+  <si>
+    <t>Знач.</t>
   </si>
 </sst>
 </file>
@@ -308,13 +296,21 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -378,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -830,23 +826,10 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -934,58 +917,50 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,24 +970,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
@@ -1021,38 +992,42 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2445,7 +2420,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -4484,16 +4458,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>313593</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>96716</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>87921</xdr:rowOff>
+      <xdr:rowOff>76198</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>187570</xdr:colOff>
+      <xdr:colOff>580293</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>105508</xdr:rowOff>
+      <xdr:rowOff>93785</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5423,11 +5397,11 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="O40" s="76" t="s">
+      <c r="O40" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="76"/>
+      <c r="P40" s="123"/>
+      <c r="Q40" s="123"/>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
@@ -5558,7 +5532,7 @@
       <c r="F50" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="H50" s="77" t="s">
+      <c r="H50" s="76" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6299,7 +6273,7 @@
       </c>
       <c r="V81" s="43"/>
       <c r="W81" s="35">
-        <f t="shared" ref="W81:W83" si="6">U81/SUM(U$80:U$83)</f>
+        <f t="shared" ref="W81:W82" si="6">U81/SUM(U$80:U$83)</f>
         <v>0.19742037378257438</v>
       </c>
       <c r="Y81">
@@ -6420,7 +6394,7 @@
         <f t="shared" si="7"/>
         <v>0.29411764705882354</v>
       </c>
-      <c r="U87" s="96">
+      <c r="U87" s="91">
         <f>AVERAGE(Q87:T87)</f>
         <v>0.30934806134482334</v>
       </c>
@@ -6445,7 +6419,7 @@
         <f t="shared" si="7"/>
         <v>0.17647058823529413</v>
       </c>
-      <c r="U88" s="96">
+      <c r="U88" s="91">
         <f>AVERAGE(Q88:T88)</f>
         <v>0.24659082797237142</v>
       </c>
@@ -6470,15 +6444,13 @@
         <f t="shared" si="7"/>
         <v>0.47058823529411764</v>
       </c>
-      <c r="U89" s="96">
+      <c r="U89" s="91">
         <f>AVERAGE(Q89:T89)</f>
         <v>0.39663594285828496</v>
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A90" s="98"/>
-      <c r="B90" s="109"/>
-      <c r="C90" s="109"/>
+      <c r="A90" s="76"/>
       <c r="P90" s="29" t="s">
         <v>52</v>
       </c>
@@ -6498,15 +6470,15 @@
         <f t="shared" si="7"/>
         <v>5.8823529411764705E-2</v>
       </c>
-      <c r="U90" s="96">
+      <c r="U90" s="91">
         <f>AVERAGE(Q90:T90)</f>
         <v>4.742516782452022E-2</v>
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
-      <c r="I92" s="76"/>
+      <c r="G92" s="123"/>
+      <c r="H92" s="123"/>
+      <c r="I92" s="123"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B93" s="39">
@@ -6521,12 +6493,12 @@
       <c r="E93" s="41">
         <v>5</v>
       </c>
-      <c r="G93" s="110">
+      <c r="G93" s="102">
         <f>SUM(B93:E93)</f>
         <v>10.25</v>
       </c>
       <c r="H93" s="43"/>
-      <c r="I93" s="115">
+      <c r="I93" s="107">
         <f>G93/SUM(G$93:G$96)</f>
         <v>0.32376941300342199</v>
       </c>
@@ -6535,11 +6507,11 @@
         <f>((B93-AVERAGE(B93:E93))^2)</f>
         <v>2.44140625</v>
       </c>
-      <c r="M93" s="111">
+      <c r="M93" s="103">
         <f>(1/4)*(((B93-AVERAGE(B93:E93))^2)+((C93-AVERAGE(B93:E93))^2)+((D93-AVERAGE(B93:E93))^2)+((B93-AVERAGE(B93:E93))^2))</f>
         <v>3.07421875</v>
       </c>
-      <c r="O93" s="114">
+      <c r="O93" s="106">
         <f>SUM(M93:M96)/4</f>
         <v>1.9450032552083334</v>
       </c>
@@ -6563,12 +6535,12 @@
         <v>6.25</v>
       </c>
       <c r="H94" s="43"/>
-      <c r="I94" s="116">
+      <c r="I94" s="108">
         <f t="shared" ref="I94:I96" si="8">G94/SUM(G$93:G$96)</f>
         <v>0.19742037378257438</v>
       </c>
       <c r="J94" s="43"/>
-      <c r="M94" s="112">
+      <c r="M94" s="104">
         <f>(1/4)*(((B94-AVERAGE(B94:E94))^2)+((C94-AVERAGE(B94:E94))^2)+((D94-AVERAGE(B94:E94))^2)+((B94-AVERAGE(B94:E94))^2))</f>
         <v>0.98828125</v>
       </c>
@@ -6593,12 +6565,12 @@
         <v>13.5</v>
       </c>
       <c r="H95" s="43"/>
-      <c r="I95" s="116">
+      <c r="I95" s="108">
         <f t="shared" si="8"/>
         <v>0.42642800737036063</v>
       </c>
       <c r="J95" s="43"/>
-      <c r="M95" s="112">
+      <c r="M95" s="104">
         <f>(1/4)*(((B95-AVERAGE(B95:E95))^2)+((C95-AVERAGE(B95:E95))^2)+((D95-AVERAGE(B95:E95))^2)+((B95-AVERAGE(B95:E95))^2))</f>
         <v>3.671875</v>
       </c>
@@ -6619,17 +6591,17 @@
       <c r="E96" s="47">
         <v>1</v>
       </c>
-      <c r="G96" s="92">
+      <c r="G96" s="88">
         <f>SUM(B96:E96)</f>
         <v>1.6583333333333332</v>
       </c>
       <c r="H96" s="43"/>
-      <c r="I96" s="117">
+      <c r="I96" s="109">
         <f t="shared" si="8"/>
         <v>5.2382205843643066E-2</v>
       </c>
       <c r="J96" s="43"/>
-      <c r="M96" s="113">
+      <c r="M96" s="105">
         <f>(1/4)*(((B96-AVERAGE(B96:E96))^2)+((C96-AVERAGE(B96:E96))^2)+((D96-AVERAGE(B96:E96))^2)+((B96-AVERAGE(B96:E96))^2))</f>
         <v>4.563802083333332E-2</v>
       </c>
@@ -6640,7 +6612,7 @@
         <v>5.45</v>
       </c>
       <c r="C97" s="74">
-        <f t="shared" ref="C97:E97" si="9">SUM(C93:C96)</f>
+        <f t="shared" ref="C97:D97" si="9">SUM(C93:C96)</f>
         <v>5.833333333333333</v>
       </c>
       <c r="D97" s="74">
@@ -6653,19 +6625,19 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A107" s="76" t="s">
+      <c r="A107" s="123" t="s">
         <v>27</v>
       </c>
-      <c r="B107" s="76"/>
-      <c r="C107" s="76"/>
-      <c r="D107" s="76"/>
+      <c r="B107" s="123"/>
+      <c r="C107" s="123"/>
+      <c r="D107" s="123"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A110" s="76" t="s">
+      <c r="A110" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="B110" s="76"/>
-      <c r="C110" s="76"/>
+      <c r="B110" s="123"/>
+      <c r="C110" s="123"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
@@ -6683,11 +6655,11 @@
       <c r="F112" t="s">
         <v>41</v>
       </c>
-      <c r="G112" s="76" t="s">
+      <c r="G112" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="H112" s="76"/>
-      <c r="I112" s="76"/>
+      <c r="H112" s="123"/>
+      <c r="I112" s="123"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
@@ -6849,11 +6821,11 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="76" t="s">
+      <c r="A120" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="B120" s="76"/>
-      <c r="C120" s="76"/>
+      <c r="B120" s="123"/>
+      <c r="C120" s="123"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
@@ -6871,11 +6843,11 @@
       <c r="F122" t="s">
         <v>41</v>
       </c>
-      <c r="G122" s="76" t="s">
+      <c r="G122" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="H122" s="76"/>
-      <c r="I122" s="76"/>
+      <c r="H122" s="123"/>
+      <c r="I122" s="123"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
@@ -7015,11 +6987,11 @@
       </c>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="76" t="s">
+      <c r="A130" s="123" t="s">
         <v>44</v>
       </c>
-      <c r="B130" s="76"/>
-      <c r="C130" s="76"/>
+      <c r="B130" s="123"/>
+      <c r="C130" s="123"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
@@ -7037,11 +7009,11 @@
       <c r="F132" t="s">
         <v>41</v>
       </c>
-      <c r="G132" s="76" t="s">
+      <c r="G132" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="H132" s="76"/>
-      <c r="I132" s="76"/>
+      <c r="H132" s="123"/>
+      <c r="I132" s="123"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
@@ -7181,11 +7153,11 @@
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="76" t="s">
+      <c r="A140" s="123" t="s">
         <v>45</v>
       </c>
-      <c r="B140" s="76"/>
-      <c r="C140" s="76"/>
+      <c r="B140" s="123"/>
+      <c r="C140" s="123"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
@@ -7203,11 +7175,11 @@
       <c r="F142" t="s">
         <v>41</v>
       </c>
-      <c r="G142" s="76" t="s">
+      <c r="G142" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="H142" s="76"/>
-      <c r="I142" s="76"/>
+      <c r="H142" s="123"/>
+      <c r="I142" s="123"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
@@ -7347,11 +7319,11 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="76" t="s">
+      <c r="A150" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="B150" s="76"/>
-      <c r="C150" s="76"/>
+      <c r="B150" s="123"/>
+      <c r="C150" s="123"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
@@ -7369,11 +7341,11 @@
       <c r="F152" t="s">
         <v>41</v>
       </c>
-      <c r="G152" s="76" t="s">
+      <c r="G152" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="H152" s="76"/>
-      <c r="I152" s="76"/>
+      <c r="H152" s="123"/>
+      <c r="I152" s="123"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
@@ -7619,23 +7591,17 @@
       </c>
     </row>
     <row r="171" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B171" s="76" t="s">
+      <c r="B171" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="C171" s="76"/>
-      <c r="D171" s="76"/>
+      <c r="C171" s="123"/>
+      <c r="D171" s="123"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A13:F26">
     <sortCondition ref="A13:A26"/>
   </sortState>
   <mergeCells count="14">
-    <mergeCell ref="O40:Q40"/>
-    <mergeCell ref="A107:D107"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="G112:I112"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="G92:I92"/>
     <mergeCell ref="A150:C150"/>
     <mergeCell ref="G152:I152"/>
     <mergeCell ref="B171:D171"/>
@@ -7644,6 +7610,12 @@
     <mergeCell ref="G132:I132"/>
     <mergeCell ref="A140:C140"/>
     <mergeCell ref="G142:I142"/>
+    <mergeCell ref="O40:Q40"/>
+    <mergeCell ref="A107:D107"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="G92:I92"/>
   </mergeCells>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" firstPageNumber="4294967295" orientation="portrait"/>
@@ -7653,10 +7625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42DEC1F9-0658-4FC9-98D6-702F121004B1}">
-  <dimension ref="B2:R23"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7670,15 +7642,15 @@
     <col min="9" max="12" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B2" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="61" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="62" t="s">
         <v>47</v>
@@ -7693,449 +7665,375 @@
         <v>45</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="3">
+      <c r="I3" s="62">
         <v>1</v>
       </c>
       <c r="J3" s="62">
         <v>2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="62">
         <v>3</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="65">
         <v>4</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" s="3">
-        <v>1</v>
-      </c>
-      <c r="P3" s="62">
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3</v>
+      </c>
+      <c r="H4" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="43">
+        <f>(C4-MIN(C$4:C$7))/(MAX(C$4:C$7)-MIN(C$4:C$7))</f>
+        <v>0.6</v>
+      </c>
+      <c r="J4" s="43">
+        <f>(D4-MIN(D$4:D$7))/(MAX(D$4:D$7)-MIN(D$4:D$7))</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K4" s="43">
+        <f t="shared" ref="J4:K7" si="0">(E4-MIN(E$4:E$7))/(MAX(E$4:E$7)-MIN(E$4:E$7))</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="L4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="Q3" s="3">
-        <v>3</v>
-      </c>
-      <c r="R3" s="4">
+      <c r="F5" s="6">
+        <v>10</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="43">
+        <f t="shared" ref="I5:I7" si="1">(C5-MIN(C$4:C$7))/(MAX(C$4:C$7)-MIN(C$4:C$7))</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="43">
+        <f>(E5-MIN(E$4:E$7))/(MAX(E$4:E$7)-MIN(E$4:E$7))</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="11">
-        <v>6</v>
-      </c>
-      <c r="D4" s="11">
-        <v>3</v>
-      </c>
-      <c r="E4" s="11">
-        <v>3</v>
-      </c>
-      <c r="F4" s="12">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="46">
-        <f>C4/SUM($C$4:$F$4)</f>
-        <v>0.27272727272727271</v>
-      </c>
-      <c r="J4" s="46">
-        <f t="shared" ref="J4:K4" si="0">D4/SUM($C$4:$F$4)</f>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="K4" s="46">
-        <f t="shared" si="0"/>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="L4" s="47">
-        <f>F4/SUM($C$4:$F$4)</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="N4" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="78">
-        <v>10</v>
-      </c>
-      <c r="P4" s="78">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="78">
-        <v>10</v>
-      </c>
-      <c r="R4" s="79">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="77" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="62">
-        <v>1</v>
-      </c>
-      <c r="J7" s="62">
-        <v>2</v>
-      </c>
-      <c r="K7" s="62">
-        <v>3</v>
-      </c>
-      <c r="L7" s="65">
+      <c r="D6">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8">
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
         <v>7</v>
       </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6">
-        <v>3</v>
-      </c>
-      <c r="H8" s="63" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="43">
-        <f>(C8-MIN(C$8:C$11))/(MAX(C$8:C$11)-MIN(C$8:C$11))</f>
-        <v>0.6</v>
-      </c>
-      <c r="J8" s="43">
-        <f t="shared" ref="J8:K11" si="1">(D8-MIN(D$8:D$11))/(MAX(D$8:D$11)-MIN(D$8:D$11))</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="K8" s="43">
-        <f t="shared" si="1"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="L8" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>7</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6">
-        <v>10</v>
-      </c>
-      <c r="H9" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9" s="43">
-        <f t="shared" ref="I9:I11" si="2">(C9-MIN(C$8:C$11))/(MAX(C$8:C$11)-MIN(C$8:C$11))</f>
-        <v>1</v>
-      </c>
-      <c r="J9" s="43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="43">
-        <f>(E9-MIN(E$8:E$11))/(MAX(E$8:E$11)-MIN(E$8:E$11))</f>
-        <v>0</v>
-      </c>
-      <c r="L9" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>9</v>
-      </c>
-      <c r="F10" s="6">
-        <v>7</v>
-      </c>
-      <c r="H10" s="63" t="s">
+      <c r="H6" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="I10" s="43">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="43">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="K10" s="43">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="11">
-        <v>8</v>
-      </c>
-      <c r="D11" s="11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="11">
-        <v>7</v>
-      </c>
-      <c r="F11" s="12">
-        <v>1</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="46">
-        <f t="shared" si="2"/>
-        <v>0.8</v>
-      </c>
-      <c r="J11" s="46">
+      <c r="I6" s="43">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="46">
+      <c r="J6" s="43">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11">
+        <v>8</v>
+      </c>
+      <c r="D7" s="11">
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <v>7</v>
+      </c>
+      <c r="F7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="64" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="46">
         <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J7" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="46">
+        <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="L11" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="L7" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="62">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="I11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="77" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="H14" s="77" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <f>C12*C22</f>
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <f>D12*D22</f>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <f>E12*E22</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="66"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
-      <c r="C15" s="3">
+      <c r="C15" s="62">
         <v>1</v>
       </c>
       <c r="D15" s="62">
         <v>2</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="62">
         <v>3</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="65">
         <v>4</v>
       </c>
-      <c r="I15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77" t="s">
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16">
+        <f>IF(C4&gt;=C$13,C4,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <f>IF(D4&gt;=D$13,D4,0)</f>
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f>IF(E4&gt;=E$13,E4,0)</f>
+        <v>5</v>
+      </c>
+      <c r="F16" s="6">
+        <f>IF(F4&gt;=F$13,F4,0)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17">
+        <f>IF(C5&gt;=C$13,C5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <f>IF(D5&gt;=D$13,D5,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f>IF(E5&gt;=E$13,E5,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F17" s="6">
+        <f>IF(F5&gt;=F$13,F5,0)</f>
+        <v>10</v>
+      </c>
+      <c r="G17" s="79" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0.1</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17">
-        <f>C16*O4</f>
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ref="D17:E17" si="3">D16*P4</f>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18">
+        <f>IF(C6&gt;=C$13,C6,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>IF(D6&gt;=D$13,D6,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <f>IF(E6&gt;=E$13,E6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="F18" s="6">
+        <f>IF(F6&gt;=F$13,F6,0)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="11">
+        <f>IF(C7&gt;=C$13,C7,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D19" s="11">
+        <f>IF(D7&gt;=D$13,D7,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="11">
+        <f>IF(E7&gt;=E$13,E7,0)</f>
+        <v>7</v>
+      </c>
+      <c r="F19" s="12">
+        <f>IF(F7&gt;=F$13,F7,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3">
+        <v>1</v>
+      </c>
+      <c r="D21" s="62">
+        <v>2</v>
+      </c>
+      <c r="E21" s="3">
         <v>3</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="F17" s="66"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="62">
-        <v>1</v>
-      </c>
-      <c r="D19" s="62">
-        <v>2</v>
-      </c>
-      <c r="E19" s="62">
-        <v>3</v>
-      </c>
-      <c r="F19" s="65">
+      <c r="F21" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20">
-        <f>IF(C8&gt;=C$17,C8,0)</f>
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ref="D20:F20" si="4">IF(D8&gt;=D$17,D8,0)</f>
-        <v>3</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B21" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21">
-        <f t="shared" ref="C21:F23" si="5">IF(C9&gt;=C$17,C9,0)</f>
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="F21" s="6">
-        <f t="shared" si="5"/>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="11">
         <v>10</v>
       </c>
-      <c r="G21" s="82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B22" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B23" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="11">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="D23" s="11">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="11">
-        <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="5"/>
-        <v>1</v>
+      <c r="D22" s="11">
+        <v>10</v>
+      </c>
+      <c r="E22" s="11">
+        <v>10</v>
+      </c>
+      <c r="F22" s="12">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I8:L11">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+  <conditionalFormatting sqref="I4:L7">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20:F23">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="C16:F19">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F23">
+  <conditionalFormatting sqref="F16:F19">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -8163,7 +8061,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>F20:F23</xm:sqref>
+          <xm:sqref>F16:F19</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -8176,7 +8074,7 @@
   <dimension ref="B2:M24"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8190,243 +8088,241 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="62">
-        <v>1</v>
-      </c>
-      <c r="D2" s="62">
+      <c r="B2" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
+      <c r="C3" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="77"/>
+      <c r="I3" s="80">
+        <v>1</v>
+      </c>
+      <c r="J3" s="81">
+        <v>4</v>
+      </c>
+      <c r="L3" s="87" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="63" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <f>'Замена критериев ограничениями'!C4</f>
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f>'Замена критериев ограничениями'!D4</f>
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <f>'Замена критериев ограничениями'!E4</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="6">
+        <f>'Замена критериев ограничениями'!F4</f>
+        <v>3</v>
+      </c>
+      <c r="H4" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4">
+        <f>C4</f>
+        <v>7</v>
+      </c>
+      <c r="J4" s="83">
+        <f>F4</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="57">
+        <f>SQRT(($C$10-I4)^2 + ($F$10-J4)^2)</f>
+        <v>7.6157731058639087</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5">
+        <f>'Замена критериев ограничениями'!C5</f>
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <f>'Замена критериев ограничениями'!D5</f>
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <f>'Замена критериев ограничениями'!E5</f>
         <v>2</v>
       </c>
-      <c r="E2" s="62">
+      <c r="F5" s="6">
+        <f>'Замена критериев ограничениями'!F5</f>
+        <v>10</v>
+      </c>
+      <c r="H5" s="82" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <f>C5</f>
+        <v>9</v>
+      </c>
+      <c r="J5" s="83">
+        <f>F5</f>
+        <v>10</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" s="57">
+        <f>SQRT(($C$10-I5)^2 + ($F$10-J5)^2)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
+        <f>'Замена критериев ограничениями'!C6</f>
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <f>'Замена критериев ограничениями'!D6</f>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <f>'Замена критериев ограничениями'!E6</f>
+        <v>9</v>
+      </c>
+      <c r="F6" s="6">
+        <f>'Замена критериев ограничениями'!F6</f>
+        <v>7</v>
+      </c>
+      <c r="H6" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6">
+        <f>C6</f>
+        <v>4</v>
+      </c>
+      <c r="J6" s="83">
+        <f>F6</f>
+        <v>7</v>
+      </c>
+      <c r="L6" s="57">
+        <f>SQRT(($C$10-I6)^2 + ($F$10-J6)^2)</f>
+        <v>6.7082039324993694</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B7" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="11">
+        <f>'Замена критериев ограничениями'!C7</f>
+        <v>8</v>
+      </c>
+      <c r="D7" s="11">
+        <f>'Замена критериев ограничениями'!D7</f>
+        <v>1</v>
+      </c>
+      <c r="E7" s="11">
+        <f>'Замена критериев ограничениями'!E7</f>
+        <v>7</v>
+      </c>
+      <c r="F7" s="12">
+        <f>'Замена критериев ограничениями'!F7</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="84" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="85">
+        <f>C7</f>
+        <v>8</v>
+      </c>
+      <c r="J7" s="86">
+        <f>F7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="88">
+        <f>SQRT(($C$10-I7)^2 + ($F$10-J7)^2)</f>
+        <v>9.2195444572928871</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="62">
+        <v>1</v>
+      </c>
+      <c r="D9" s="62">
+        <v>2</v>
+      </c>
+      <c r="E9" s="62">
         <v>3</v>
       </c>
-      <c r="F2" s="65">
+      <c r="F9" s="65">
         <v>4</v>
       </c>
-      <c r="H2" s="77" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="78">
-        <v>10</v>
-      </c>
-      <c r="D3" s="78">
-        <v>10</v>
-      </c>
-      <c r="E3" s="78">
-        <v>10</v>
-      </c>
-      <c r="F3" s="79">
-        <v>10</v>
-      </c>
-      <c r="H3" s="80"/>
-      <c r="I3" s="83">
-        <v>1</v>
-      </c>
-      <c r="J3" s="84">
-        <v>4</v>
-      </c>
-      <c r="L3" s="91" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="H4" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="86">
-        <f>C7</f>
-        <v>7</v>
-      </c>
-      <c r="J4" s="87">
-        <f>F7</f>
-        <v>3</v>
-      </c>
-      <c r="L4" s="57">
-        <f>SQRT(($C$3-I4)^2 + ($F$3-J4)^2)</f>
-        <v>7.6157731058639087</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="85" t="s">
-        <v>60</v>
-      </c>
-      <c r="I5" s="86">
-        <f>C8</f>
-        <v>9</v>
-      </c>
-      <c r="J5" s="87">
-        <f>F8</f>
-        <v>10</v>
-      </c>
-      <c r="K5" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="57">
-        <f>SQRT(($C$3-I5)^2 + ($F$3-J5)^2)</f>
-        <v>1</v>
-      </c>
-      <c r="M5" s="82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="85" t="s">
-        <v>61</v>
-      </c>
-      <c r="I6" s="86">
-        <f>C9</f>
-        <v>4</v>
-      </c>
-      <c r="J6" s="87">
-        <f>F9</f>
-        <v>7</v>
-      </c>
-      <c r="L6" s="57">
-        <f>SQRT(($C$3-I6)^2 + ($F$3-J6)^2)</f>
-        <v>6.7082039324993694</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
-        <f>'Замена критериев ограничениями'!C8</f>
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <f>'Замена критериев ограничениями'!D8</f>
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <f>'Замена критериев ограничениями'!E8</f>
-        <v>5</v>
-      </c>
-      <c r="F7" s="6">
-        <f>'Замена критериев ограничениями'!F8</f>
-        <v>3</v>
-      </c>
-      <c r="H7" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="I7" s="89">
-        <f>C10</f>
-        <v>8</v>
-      </c>
-      <c r="J7" s="90">
-        <f>F10</f>
-        <v>1</v>
-      </c>
-      <c r="L7" s="92">
-        <f>SQRT(($C$3-I7)^2 + ($F$3-J7)^2)</f>
-        <v>9.2195444572928871</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8">
-        <f>'Замена критериев ограничениями'!C9</f>
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <f>'Замена критериев ограничениями'!D9</f>
-        <v>7</v>
-      </c>
-      <c r="E8">
-        <f>'Замена критериев ограничениями'!E9</f>
-        <v>2</v>
-      </c>
-      <c r="F8" s="6">
-        <f>'Замена критериев ограничениями'!F9</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9">
-        <f>'Замена критериев ограничениями'!C10</f>
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <f>'Замена критериев ограничениями'!D10</f>
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <f>'Замена критериев ограничениями'!E10</f>
-        <v>9</v>
-      </c>
-      <c r="F9" s="6">
-        <f>'Замена критериев ограничениями'!F10</f>
-        <v>7</v>
-      </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="64" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C10" s="11">
-        <f>'Замена критериев ограничениями'!C11</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D10" s="11">
-        <f>'Замена критериев ограничениями'!D11</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10" s="11">
-        <f>'Замена критериев ограничениями'!E11</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10" s="12">
-        <f>'Замена критериев ограничениями'!F11</f>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="77" t="s">
-        <v>68</v>
+      <c r="B12" s="76" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
-      <c r="C13" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="65" t="s">
-        <v>45</v>
+      <c r="C13" s="62">
+        <v>1</v>
+      </c>
+      <c r="D13" s="62">
+        <v>2</v>
+      </c>
+      <c r="E13" s="62">
+        <v>3</v>
+      </c>
+      <c r="F13" s="65">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
@@ -8434,19 +8330,19 @@
         <v>37</v>
       </c>
       <c r="C14">
-        <f>(C7-C$3)^2</f>
+        <f>(C4-C$10)^2</f>
         <v>9</v>
       </c>
       <c r="D14">
-        <f>(D7-D$3)^2</f>
+        <f>(D4-D$10)^2</f>
         <v>49</v>
       </c>
       <c r="E14">
-        <f>(E7-E$3)^2</f>
+        <f>(E4-E$10)^2</f>
         <v>25</v>
       </c>
       <c r="F14" s="6">
-        <f>(F7-F$3)^2</f>
+        <f>(F4-F$10)^2</f>
         <v>49</v>
       </c>
     </row>
@@ -8455,19 +8351,19 @@
         <v>38</v>
       </c>
       <c r="C15">
-        <f>(C8-C$3)^2</f>
+        <f>(C5-C$10)^2</f>
         <v>1</v>
       </c>
       <c r="D15">
-        <f>(D8-D$3)^2</f>
+        <f>(D5-D$10)^2</f>
         <v>9</v>
       </c>
       <c r="E15">
-        <f>(E8-E$3)^2</f>
+        <f>(E5-E$10)^2</f>
         <v>64</v>
       </c>
       <c r="F15" s="6">
-        <f>(F8-F$3)^2</f>
+        <f>(F5-F$10)^2</f>
         <v>0</v>
       </c>
     </row>
@@ -8476,19 +8372,19 @@
         <v>39</v>
       </c>
       <c r="C16">
-        <f>(C9-C$3)^2</f>
+        <f>(C6-C$10)^2</f>
         <v>36</v>
       </c>
       <c r="D16">
-        <f>(D9-D$3)^2</f>
+        <f>(D6-D$10)^2</f>
         <v>36</v>
       </c>
       <c r="E16">
-        <f>(E9-E$3)^2</f>
+        <f>(E6-E$10)^2</f>
         <v>1</v>
       </c>
       <c r="F16" s="6">
-        <f>(F9-F$3)^2</f>
+        <f>(F6-F$10)^2</f>
         <v>9</v>
       </c>
     </row>
@@ -8497,31 +8393,31 @@
         <v>40</v>
       </c>
       <c r="C17" s="11">
-        <f>(C10-C$3)^2</f>
+        <f>(C7-C$10)^2</f>
         <v>4</v>
       </c>
       <c r="D17" s="11">
-        <f>(D10-D$3)^2</f>
+        <f>(D7-D$10)^2</f>
         <v>81</v>
       </c>
       <c r="E17" s="11">
-        <f>(E10-E$3)^2</f>
+        <f>(E7-E$10)^2</f>
         <v>9</v>
       </c>
       <c r="F17" s="12">
-        <f>(F10-F$3)^2</f>
+        <f>(F7-F$10)^2</f>
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="76" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="80"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="65" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
@@ -8541,8 +8437,8 @@
         <f t="shared" ref="C22:C24" si="0">SQRT(SUM(C15:F15))</f>
         <v>8.6023252670426267</v>
       </c>
-      <c r="D22" s="82" t="s">
-        <v>70</v>
+      <c r="D22" s="79" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
@@ -8571,10 +8467,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CEB7309-EF1E-45AF-B854-B4D064B16282}">
-  <dimension ref="B2:U21"/>
+  <dimension ref="B2:U19"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U32" sqref="U32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8591,11 +8487,8 @@
       <c r="B2" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="77" t="s">
-        <v>76</v>
-      </c>
-      <c r="N2" s="77" t="s">
-        <v>78</v>
+      <c r="H2" s="76" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.3">
@@ -8633,19 +8526,19 @@
         <v>37</v>
       </c>
       <c r="C4">
-        <f>'Замена критериев ограничениями'!C8</f>
+        <f>'Замена критериев ограничениями'!C4</f>
         <v>7</v>
       </c>
       <c r="D4">
-        <f>'Замена критериев ограничениями'!D8</f>
+        <f>'Замена критериев ограничениями'!D4</f>
         <v>3</v>
       </c>
       <c r="E4">
-        <f>'Замена критериев ограничениями'!E8</f>
+        <f>'Замена критериев ограничениями'!E4</f>
         <v>5</v>
       </c>
       <c r="F4" s="6">
-        <f>'Замена критериев ограничениями'!F8</f>
+        <f>'Замена критериев ограничениями'!F4</f>
         <v>3</v>
       </c>
       <c r="H4" s="67" t="s">
@@ -8669,11 +8562,11 @@
       </c>
       <c r="N4" s="51">
         <f>C19</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="P4" s="53">
         <f t="array" ref="P4:P7">MMULT($I$4:$L$7,$N$4:$N$7)</f>
-        <v>0.1855590062111801</v>
+        <v>0.19099378881987578</v>
       </c>
       <c r="U4" s="43"/>
     </row>
@@ -8682,19 +8575,19 @@
         <v>38</v>
       </c>
       <c r="C5">
-        <f>'Замена критериев ограничениями'!C9</f>
+        <f>'Замена критериев ограничениями'!C5</f>
         <v>9</v>
       </c>
       <c r="D5">
-        <f>'Замена критериев ограничениями'!D9</f>
+        <f>'Замена критериев ограничениями'!D5</f>
         <v>7</v>
       </c>
       <c r="E5">
-        <f>'Замена критериев ограничениями'!E9</f>
+        <f>'Замена критериев ограничениями'!E5</f>
         <v>2</v>
       </c>
       <c r="F5" s="6">
-        <f>'Замена критериев ограничениями'!F9</f>
+        <f>'Замена критериев ограничениями'!F5</f>
         <v>10</v>
       </c>
       <c r="H5" s="67" t="s">
@@ -8704,11 +8597,11 @@
         <f t="shared" ref="I5:I7" si="1">C5/SUM(C$4:C$7)</f>
         <v>0.32142857142857145</v>
       </c>
-      <c r="J5" s="94">
+      <c r="J5" s="43">
         <f t="shared" si="0"/>
         <v>0.46666666666666667</v>
       </c>
-      <c r="K5" s="94">
+      <c r="K5" s="43">
         <f t="shared" si="0"/>
         <v>8.6956521739130432E-2</v>
       </c>
@@ -8716,18 +8609,18 @@
         <f t="shared" si="0"/>
         <v>0.47619047619047616</v>
       </c>
-      <c r="M5" s="97" t="s">
+      <c r="M5" s="92" t="s">
         <v>34</v>
       </c>
       <c r="N5" s="49">
         <f>D19</f>
         <v>0</v>
       </c>
-      <c r="O5" s="97" t="s">
+      <c r="O5" s="92" t="s">
         <v>35</v>
       </c>
       <c r="P5" s="50">
-        <v>0.32065217391304346</v>
+        <v>0.35973084886128365</v>
       </c>
       <c r="U5" s="43"/>
     </row>
@@ -8736,19 +8629,19 @@
         <v>39</v>
       </c>
       <c r="C6">
-        <f>'Замена критериев ограничениями'!C10</f>
+        <f>'Замена критериев ограничениями'!C6</f>
         <v>4</v>
       </c>
       <c r="D6">
-        <f>'Замена критериев ограничениями'!D10</f>
+        <f>'Замена критериев ограничениями'!D6</f>
         <v>4</v>
       </c>
       <c r="E6">
-        <f>'Замена критериев ограничениями'!E10</f>
+        <f>'Замена критериев ограничениями'!E6</f>
         <v>9</v>
       </c>
       <c r="F6" s="6">
-        <f>'Замена критериев ограничениями'!F10</f>
+        <f>'Замена критериев ограничениями'!F6</f>
         <v>7</v>
       </c>
       <c r="H6" s="67" t="s">
@@ -8758,11 +8651,11 @@
         <f t="shared" si="1"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6" s="43">
         <f>D6/SUM(D$4:D$7)</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="K6" s="94">
+      <c r="K6" s="43">
         <f t="shared" si="0"/>
         <v>0.39130434782608697</v>
       </c>
@@ -8772,13 +8665,10 @@
       </c>
       <c r="N6" s="49">
         <f>E19</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P6" s="50">
-        <v>0.32091097308488614</v>
-      </c>
-      <c r="Q6" s="82" t="s">
-        <v>70</v>
+        <v>0.27950310559006208</v>
       </c>
       <c r="U6" s="43"/>
     </row>
@@ -8787,19 +8677,19 @@
         <v>40</v>
       </c>
       <c r="C7" s="11">
-        <f>'Замена критериев ограничениями'!C11</f>
+        <f>'Замена критериев ограничениями'!C7</f>
         <v>8</v>
       </c>
       <c r="D7" s="11">
-        <f>'Замена критериев ограничениями'!D11</f>
+        <f>'Замена критериев ограничениями'!D7</f>
         <v>1</v>
       </c>
       <c r="E7" s="11">
-        <f>'Замена критериев ограничениями'!E11</f>
+        <f>'Замена критериев ограничениями'!E7</f>
         <v>7</v>
       </c>
       <c r="F7" s="12">
-        <f>'Замена критериев ограничениями'!F11</f>
+        <f>'Замена критериев ограничениями'!F7</f>
         <v>1</v>
       </c>
       <c r="H7" s="68" t="s">
@@ -8826,55 +8716,40 @@
         <v>0.5</v>
       </c>
       <c r="P7" s="54">
-        <v>0.17287784679089027</v>
+        <v>0.16977225672877846</v>
       </c>
       <c r="U7" s="43"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="77" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="H9" s="76" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
-      <c r="C10" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="65" t="s">
-        <v>45</v>
+      <c r="C10" s="62">
+        <v>1</v>
+      </c>
+      <c r="D10" s="62">
+        <v>2</v>
+      </c>
+      <c r="E10" s="62">
+        <v>3</v>
+      </c>
+      <c r="F10" s="65">
+        <v>4</v>
       </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="26">
-        <v>1</v>
-      </c>
-      <c r="J10" s="69">
-        <v>2</v>
-      </c>
-      <c r="K10" s="26">
-        <v>3</v>
-      </c>
-      <c r="L10" s="27">
-        <v>4</v>
-      </c>
-      <c r="N10" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" s="106" t="s">
-        <v>79</v>
+      <c r="I10" s="133" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="63" t="s">
-        <v>37</v>
+      <c r="B11" s="63">
+        <v>1</v>
       </c>
       <c r="C11" s="18">
         <v>0</v>
@@ -8883,89 +8758,52 @@
         <v>0</v>
       </c>
       <c r="E11" s="19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="20">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="39">
-        <f>C4*C$19</f>
-        <v>1.1666666666666665</v>
-      </c>
-      <c r="J11" s="40">
-        <f>D4*D$19</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="40">
-        <f>E4*E$19</f>
-        <v>1.6666666666666665</v>
-      </c>
-      <c r="L11" s="41">
-        <f>F4*F$19</f>
-        <v>1.5</v>
-      </c>
-      <c r="N11" s="102">
-        <f>SUM(I11:L11)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="P11" s="53">
-        <f>N11/SUM(N$11:N$14)</f>
-        <v>0.18978102189781024</v>
+      <c r="I11" s="131">
+        <f>P4</f>
+        <v>0.19099378881987578</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="63" t="s">
-        <v>38</v>
+      <c r="B12" s="63">
+        <v>2</v>
       </c>
       <c r="C12" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F12" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="I12" s="42">
-        <f>C5*C$19</f>
-        <v>1.5</v>
-      </c>
-      <c r="J12" s="43">
-        <f>D5*D$19</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="43">
-        <f>E5*E$19</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L12" s="44">
-        <f>F5*F$19</f>
-        <v>5</v>
-      </c>
-      <c r="N12" s="103">
-        <f>SUM(I12:L12)</f>
-        <v>7.1666666666666661</v>
-      </c>
-      <c r="P12" s="50">
-        <f>N12/SUM(N$11:N$14)</f>
-        <v>0.31386861313868619</v>
+      <c r="I12" s="131">
+        <f>P5</f>
+        <v>0.35973084886128365</v>
+      </c>
+      <c r="J12" s="79" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="63" t="s">
-        <v>39</v>
+      <c r="B13" s="63">
+        <v>3</v>
       </c>
       <c r="C13" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -8974,39 +8812,19 @@
         <v>0</v>
       </c>
       <c r="F13" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="42">
-        <f>C6*C$19</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J13" s="43">
-        <f>D6*D$19</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="43">
-        <f>E6*E$19</f>
-        <v>3</v>
-      </c>
-      <c r="L13" s="44">
-        <f>F6*F$19</f>
-        <v>3.5</v>
-      </c>
-      <c r="N13" s="103">
-        <f>SUM(I13:L13)</f>
-        <v>7.1666666666666661</v>
-      </c>
-      <c r="P13" s="50">
-        <f>N13/SUM(N$11:N$14)</f>
-        <v>0.31386861313868619</v>
+      <c r="I13" s="131">
+        <f>P6</f>
+        <v>0.27950310559006208</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="64" t="s">
-        <v>40</v>
+      <c r="B14" s="64">
+        <v>4</v>
       </c>
       <c r="C14" s="22">
         <v>0</v>
@@ -9020,41 +8838,21 @@
       <c r="F14" s="12">
         <v>0</v>
       </c>
-      <c r="H14" s="68" t="s">
+      <c r="H14" s="130" t="s">
         <v>62</v>
       </c>
-      <c r="I14" s="45">
-        <f>C7*C$19</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="J14" s="46">
-        <f>D7*D$19</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="46">
-        <f>E7*E$19</f>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="L14" s="47">
-        <f>F7*F$19</f>
-        <v>0.5</v>
-      </c>
-      <c r="N14" s="104">
-        <f>SUM(I14:L14)</f>
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="P14" s="54">
-        <f>N14/SUM(N$11:N$14)</f>
-        <v>0.18248175182481752</v>
+      <c r="I14" s="132">
+        <f>P7</f>
+        <v>0.16977225672877846</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="76" t="s">
         <v>25</v>
       </c>
       <c r="C15">
         <f>SUM(C11:C14)</f>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <f>SUM(D11:D14)</f>
@@ -9066,42 +8864,16 @@
       </c>
       <c r="F15">
         <f>SUM(F11:F14)</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="H16" s="77" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" s="77" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="26">
-        <v>1</v>
-      </c>
-      <c r="J17" s="69">
-        <v>2</v>
-      </c>
-      <c r="K17" s="26">
-        <v>3</v>
-      </c>
-      <c r="L17" s="27">
-        <v>4</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="R17" s="106" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="80"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="77"/>
       <c r="C18" s="62">
         <v>1</v>
       </c>
@@ -9114,40 +8886,14 @@
       <c r="F18" s="65">
         <v>4</v>
       </c>
-      <c r="H18" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="I18" s="70">
-        <v>7</v>
-      </c>
-      <c r="J18" s="71">
-        <v>3</v>
-      </c>
-      <c r="K18" s="71">
-        <v>5</v>
-      </c>
-      <c r="L18" s="72">
-        <v>3</v>
-      </c>
-      <c r="N18" s="51">
-        <v>0.16666666666666699</v>
-      </c>
-      <c r="P18" s="53">
-        <f t="array" ref="P18:P21">MMULT($C$4:$F$7,$N$4:$N$7)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="R18" s="53">
-        <f>P18/SUM(P$18:P$21)</f>
-        <v>0.18978102189781024</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="95" t="s">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="90" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="74">
         <f>C15/SUM($C15:$F15)</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D19" s="74">
         <f>D15/SUM($C15:$F15)</f>
@@ -9155,96 +8901,11 @@
       </c>
       <c r="E19" s="74">
         <f>E15/SUM($C15:$F15)</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="F19" s="75">
         <f t="shared" ref="F19" si="2">F15/SUM($C15:$F15)</f>
         <v>0.5</v>
-      </c>
-      <c r="H19" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="55">
-        <v>9</v>
-      </c>
-      <c r="J19" s="94">
-        <v>7</v>
-      </c>
-      <c r="K19" s="94">
-        <v>2</v>
-      </c>
-      <c r="L19" s="56">
-        <v>10</v>
-      </c>
-      <c r="M19" s="97" t="s">
-        <v>34</v>
-      </c>
-      <c r="N19" s="49">
-        <v>0</v>
-      </c>
-      <c r="O19" s="97" t="s">
-        <v>35</v>
-      </c>
-      <c r="P19" s="50">
-        <v>7.1666666666666661</v>
-      </c>
-      <c r="R19" s="50">
-        <f>P19/SUM(P$18:P$21)</f>
-        <v>0.31386861313868619</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="H20" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="I20" s="55">
-        <v>4</v>
-      </c>
-      <c r="J20" s="94">
-        <v>4</v>
-      </c>
-      <c r="K20" s="94">
-        <v>9</v>
-      </c>
-      <c r="L20" s="56">
-        <v>7</v>
-      </c>
-      <c r="N20" s="49">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="P20" s="50">
-        <v>7.1666666666666661</v>
-      </c>
-      <c r="R20" s="50">
-        <f>P20/SUM(P$18:P$21)</f>
-        <v>0.31386861313868619</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="H21" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="I21" s="73">
-        <v>8</v>
-      </c>
-      <c r="J21" s="74">
-        <v>1</v>
-      </c>
-      <c r="K21" s="74">
-        <v>7</v>
-      </c>
-      <c r="L21" s="75">
-        <v>1</v>
-      </c>
-      <c r="N21" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="P21" s="54">
-        <v>4.1666666666666661</v>
-      </c>
-      <c r="R21" s="54">
-        <f>P21/SUM(P$18:P$21)</f>
-        <v>0.18248175182481752</v>
       </c>
     </row>
   </sheetData>
@@ -9254,10 +8915,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDAFE5F-A446-4950-983A-6E72D7856727}">
-  <dimension ref="B2:X65"/>
+  <dimension ref="B2:AD58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9272,12 +8933,12 @@
     <col min="9" max="9" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B2" s="61" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B3" s="2"/>
       <c r="C3" s="62" t="s">
         <v>47</v>
@@ -9292,2166 +8953,2400 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B4" s="63" t="s">
         <v>37</v>
       </c>
       <c r="C4">
-        <f>'Замена критериев ограничениями'!C8</f>
+        <f>'Замена критериев ограничениями'!C4</f>
         <v>7</v>
       </c>
       <c r="D4">
-        <f>'Замена критериев ограничениями'!D8</f>
+        <f>'Замена критериев ограничениями'!D4</f>
         <v>3</v>
       </c>
       <c r="E4">
-        <f>'Замена критериев ограничениями'!E8</f>
+        <f>'Замена критериев ограничениями'!E4</f>
         <v>5</v>
       </c>
       <c r="F4" s="6">
-        <f>'Замена критериев ограничениями'!F8</f>
+        <f>'Замена критериев ограничениями'!F4</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B5" s="63" t="s">
         <v>38</v>
       </c>
       <c r="C5">
-        <f>'Замена критериев ограничениями'!C9</f>
         <v>9</v>
       </c>
       <c r="D5">
-        <f>'Замена критериев ограничениями'!D9</f>
+        <f>'Замена критериев ограничениями'!D5</f>
         <v>7</v>
       </c>
       <c r="E5">
-        <f>'Замена критериев ограничениями'!E9</f>
+        <f>'Замена критериев ограничениями'!E5</f>
         <v>2</v>
       </c>
       <c r="F5" s="6">
-        <f>'Замена критериев ограничениями'!F9</f>
+        <f>'Замена критериев ограничениями'!F5</f>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B6" s="63" t="s">
         <v>39</v>
       </c>
       <c r="C6">
-        <f>'Замена критериев ограничениями'!C10</f>
+        <f>'Замена критериев ограничениями'!C6</f>
         <v>4</v>
       </c>
       <c r="D6">
-        <f>'Замена критериев ограничениями'!D10</f>
+        <f>'Замена критериев ограничениями'!D6</f>
         <v>4</v>
       </c>
       <c r="E6">
-        <f>'Замена критериев ограничениями'!E10</f>
+        <f>'Замена критериев ограничениями'!E6</f>
         <v>9</v>
       </c>
       <c r="F6" s="6">
-        <f>'Замена критериев ограничениями'!F10</f>
+        <f>'Замена критериев ограничениями'!F6</f>
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B7" s="64" t="s">
         <v>40</v>
       </c>
       <c r="C7" s="11">
-        <f>'Замена критериев ограничениями'!C11</f>
+        <f>'Замена критериев ограничениями'!C7</f>
         <v>8</v>
       </c>
       <c r="D7" s="11">
-        <f>'Замена критериев ограничениями'!D11</f>
+        <f>'Замена критериев ограничениями'!D7</f>
         <v>1</v>
       </c>
       <c r="E7" s="11">
-        <f>'Замена критериев ограничениями'!E11</f>
+        <f>'Замена критериев ограничениями'!E7</f>
         <v>7</v>
       </c>
       <c r="F7" s="12">
-        <f>'Замена критериев ограничениями'!F11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B9" s="77" t="s">
+        <f>'Замена критериев ограничениями'!F7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B9" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B13" s="76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="L14" s="2"/>
+      <c r="N14" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="118" t="s">
+      <c r="P14" s="2"/>
+      <c r="Q14" s="100" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="118" t="s">
+      <c r="R14" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="118" t="s">
+      <c r="S14" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="119" t="s">
+      <c r="T14" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="J10" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="107" t="s">
+      <c r="U14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" s="117"/>
+      <c r="X14" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA14">
+        <f>Z15</f>
+        <v>7</v>
+      </c>
+      <c r="AB14">
+        <f>Z16</f>
+        <v>9</v>
+      </c>
+      <c r="AC14">
+        <f>Z17</f>
+        <v>4</v>
+      </c>
+      <c r="AD14">
+        <f>Z18</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B15" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="R10" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="S10" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="T10" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="U10" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="W10" s="128"/>
-      <c r="X10" s="133" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B11" s="67" t="s">
+      <c r="C15" s="70">
+        <f>AA15</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="71">
+        <f>1/C16</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="E15" s="71">
+        <f>1/C17</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F15" s="72">
+        <f>1/C18</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="51">
+        <f>SUM(C15:F15)</f>
+        <v>4.3449883449883453</v>
+      </c>
+      <c r="J15" s="51">
+        <f>H15/SUM(H$15:H$18)</f>
+        <v>0.25034359568972075</v>
+      </c>
+      <c r="L15" s="96">
+        <f>C19*J15</f>
+        <v>1.001374382758883</v>
+      </c>
+      <c r="N15" s="116">
+        <f>N17*0.9</f>
+        <v>6.7340278368455131E-4</v>
+      </c>
+      <c r="P15" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="70">
-        <v>1</v>
-      </c>
-      <c r="D11" s="71">
-        <f>1/C12</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E11" s="71">
-        <f>1/C13</f>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="F11" s="72">
-        <f>1/C14</f>
-        <v>1.25</v>
-      </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="51">
-        <f>SUM(C11:F11)</f>
-        <v>4.3452380952380949</v>
-      </c>
-      <c r="J11" s="51">
-        <f>H11/SUM(H$11:H$14)</f>
+      <c r="Q15" s="39">
+        <f>C15/C$19</f>
         <v>0.25</v>
       </c>
-      <c r="L11" s="102">
-        <f>(1/4)*(((C11-AVERAGE(C11:F11))^2)+((D11-AVERAGE(C11:F11))^2)+((E11-AVERAGE(C11:F11))^2)+((C11-AVERAGE(C11:F11))^2))</f>
-        <v>7.703550170068027E-2</v>
-      </c>
-      <c r="N11" s="127">
-        <f>SUM(L11:L14)/4</f>
-        <v>8.4353874362244952E-2</v>
-      </c>
-      <c r="P11" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q11" s="39">
-        <f>C11/C$15</f>
-        <v>0.25</v>
-      </c>
-      <c r="R11" s="40">
-        <f t="shared" ref="R11:T14" si="0">D11/D$15</f>
-        <v>0.25000000000000006</v>
-      </c>
-      <c r="S11" s="40">
-        <f t="shared" si="0"/>
-        <v>0.24999999999999997</v>
-      </c>
-      <c r="T11" s="41">
+      <c r="R15" s="40">
+        <f t="shared" ref="R15:T18" si="0">D15/D$19</f>
+        <v>0.24271844660194175</v>
+      </c>
+      <c r="S15" s="40">
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="U11" s="35">
-        <f>AVERAGE(Q11:T11)</f>
+      <c r="T15" s="41">
+        <f t="shared" si="0"/>
+        <v>0.2582496413199426</v>
+      </c>
+      <c r="U15" s="35">
+        <f>AVERAGE(Q15:T15)</f>
+        <v>0.25024202198047107</v>
+      </c>
+      <c r="W15" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="X15" s="118">
+        <f>U15</f>
+        <v>0.25024202198047107</v>
+      </c>
+      <c r="Z15">
+        <f>C4</f>
+        <v>7</v>
+      </c>
+      <c r="AA15" s="70">
+        <f>$Z15/AA$14</f>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="71">
+        <f t="shared" ref="AB15:AD15" si="1">$Z15/AB$14</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AC15" s="71">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="AD15" s="72">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="16" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B16" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="55">
+        <v>1.3</v>
+      </c>
+      <c r="D16" s="124">
+        <v>1</v>
+      </c>
+      <c r="E16" s="124">
+        <f>1/D17</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="56">
+        <f>1/D18</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="49">
+        <f>SUM(C16:F16)</f>
+        <v>5.4111111111111114</v>
+      </c>
+      <c r="J16" s="49">
+        <f>H16/SUM(H$15:H$18)</f>
+        <v>0.31176999905986846</v>
+      </c>
+      <c r="L16" s="97">
+        <f>D19*J16</f>
+        <v>0.98807107394358307</v>
+      </c>
+      <c r="P16" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q16" s="42">
+        <f t="shared" ref="Q16:Q18" si="2">C16/C$19</f>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="R16" s="43">
+        <f t="shared" si="0"/>
+        <v>0.3155339805825243</v>
+      </c>
+      <c r="S16" s="43">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="T16" s="44">
+        <f t="shared" si="0"/>
+        <v>0.31563845050215206</v>
+      </c>
+      <c r="U16" s="35">
+        <f>AVERAGE(Q16:T16)</f>
+        <v>0.31404310777116912</v>
+      </c>
+      <c r="W16" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="X16" s="119">
+        <f>U16</f>
+        <v>0.31404310777116912</v>
+      </c>
+      <c r="Z16">
+        <f t="shared" ref="Z16:Z18" si="3">C5</f>
+        <v>9</v>
+      </c>
+      <c r="AA16" s="55">
+        <f t="shared" ref="AA16:AD18" si="4">$Z16/AA$14</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="AB16" s="124">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AC16" s="124">
+        <f t="shared" si="4"/>
+        <v>2.25</v>
+      </c>
+      <c r="AD16" s="56">
+        <f t="shared" si="4"/>
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B17" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="55">
+        <v>0.6</v>
+      </c>
+      <c r="D17" s="124">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="124">
+        <v>1</v>
+      </c>
+      <c r="F17" s="56">
+        <f>1/E18</f>
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="43"/>
+      <c r="H17" s="49">
+        <f>SUM(C17:F17)</f>
+        <v>2.6</v>
+      </c>
+      <c r="J17" s="49">
+        <f t="shared" ref="J17:J18" si="5">H17/SUM(H$15:H$18)</f>
+        <v>0.1498032439014563</v>
+      </c>
+      <c r="L17" s="97">
+        <f>E19*J17</f>
+        <v>0.99868829267637538</v>
+      </c>
+      <c r="N17">
+        <f>(L19-4)/3</f>
+        <v>7.4822531520505697E-4</v>
+      </c>
+      <c r="P17" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="42">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="R17" s="43">
+        <f t="shared" si="0"/>
+        <v>0.15776699029126215</v>
+      </c>
+      <c r="S17" s="43">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="T17" s="44">
+        <f t="shared" si="0"/>
+        <v>0.14203730272596843</v>
+      </c>
+      <c r="U17" s="35">
+        <f>AVERAGE(Q17:T17)</f>
+        <v>0.14995107325430762</v>
+      </c>
+      <c r="W17" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="X17" s="119">
+        <f>U17</f>
+        <v>0.14995107325430762</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AA17" s="55">
+        <f t="shared" si="4"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AB17" s="124">
+        <f t="shared" si="4"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="AC17" s="124">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AD17" s="56">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B18" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="73">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D18" s="74">
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="74">
+        <v>2</v>
+      </c>
+      <c r="F18" s="75">
+        <v>1</v>
+      </c>
+      <c r="G18" s="43"/>
+      <c r="H18" s="52">
+        <f>SUM(C18:F18)</f>
+        <v>5</v>
+      </c>
+      <c r="J18" s="52">
+        <f t="shared" si="5"/>
+        <v>0.2880831613489544</v>
+      </c>
+      <c r="L18" s="98">
+        <f>F19*J18</f>
+        <v>1.0141109265667738</v>
+      </c>
+      <c r="P18" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q18" s="45">
+        <f t="shared" si="2"/>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="R18" s="46">
+        <f t="shared" si="0"/>
+        <v>0.28398058252427189</v>
+      </c>
+      <c r="S18" s="46">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="T18" s="47">
+        <f t="shared" si="0"/>
+        <v>0.28407460545193686</v>
+      </c>
+      <c r="U18" s="35">
+        <f>AVERAGE(Q18:T18)</f>
+        <v>0.28576379699405219</v>
+      </c>
+      <c r="W18" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="X18" s="120">
+        <f>U18</f>
+        <v>0.28576379699405219</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AA18" s="73">
+        <f t="shared" si="4"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="AB18" s="74">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="AC18" s="74">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="AD18" s="75">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B19" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="43">
+        <f>SUM(C15:C18)</f>
+        <v>4</v>
+      </c>
+      <c r="D19" s="43">
+        <f>SUM(D15:D18)</f>
+        <v>3.1692307692307691</v>
+      </c>
+      <c r="E19" s="43">
+        <f>SUM(E15:E18)</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="F19" s="43">
+        <f>SUM(F15:F18)</f>
+        <v>3.5202020202020203</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="L19" s="128">
+        <f>SUM(L15:L18)</f>
+        <v>4.0022446759456152</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B21" s="76" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="J22" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="N22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="R22" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="S22" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="T22" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="U22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W22" s="117"/>
+      <c r="X22" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA22">
+        <f>Z23</f>
+        <v>3</v>
+      </c>
+      <c r="AB22">
+        <f>Z24</f>
+        <v>7</v>
+      </c>
+      <c r="AC22">
+        <f>Z25</f>
+        <v>4</v>
+      </c>
+      <c r="AD22">
+        <f>Z26</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B23" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="70">
+        <v>1</v>
+      </c>
+      <c r="D23" s="71">
+        <f>1/C24</f>
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="E23" s="71">
+        <f>1/C25</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="F23" s="72">
+        <f>1/C26</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G23" s="43"/>
+      <c r="H23" s="51">
+        <f>SUM(C23:F23)</f>
+        <v>5.5373467112597545</v>
+      </c>
+      <c r="J23" s="51">
+        <f>H23/SUM(H$23:H$26)</f>
+        <v>0.21487002677764175</v>
+      </c>
+      <c r="L23" s="96">
+        <f>C27*J23</f>
+        <v>1.0528631312104444</v>
+      </c>
+      <c r="N23" s="116">
+        <f>N25*0.9</f>
+        <v>4.6480189303650839E-3</v>
+      </c>
+      <c r="P23" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q23" s="39">
+        <f>C23/C$27</f>
+        <v>0.20408163265306126</v>
+      </c>
+      <c r="R23" s="40">
+        <f t="shared" ref="R23:T26" si="6">D23/D$27</f>
+        <v>0.19900497512437812</v>
+      </c>
+      <c r="S23" s="40">
+        <f t="shared" si="6"/>
+        <v>0.208695652173913</v>
+      </c>
+      <c r="T23" s="41">
+        <f t="shared" si="6"/>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="U23" s="35">
+        <f>AVERAGE(Q23:T23)</f>
+        <v>0.20850112054339365</v>
+      </c>
+      <c r="W23" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="X23" s="118">
+        <f>U23</f>
+        <v>0.20850112054339365</v>
+      </c>
+      <c r="Z23">
+        <f>D4</f>
+        <v>3</v>
+      </c>
+      <c r="AA23" s="70">
+        <f>$Z23/AA$22</f>
+        <v>1</v>
+      </c>
+      <c r="AB23" s="71">
+        <f t="shared" ref="AB23:AD23" si="7">$Z23/AB$22</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AC23" s="71">
+        <f t="shared" si="7"/>
+        <v>0.75</v>
+      </c>
+      <c r="AD23" s="72">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B24" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D24" s="124">
+        <v>1</v>
+      </c>
+      <c r="E24" s="124">
+        <f>1/D25</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="F24" s="56">
+        <f>1/D26</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="49">
+        <f>SUM(C24:F24)</f>
+        <v>11.633333333333333</v>
+      </c>
+      <c r="J24" s="49">
+        <f t="shared" ref="J24:J26" si="8">H24/SUM(H$23:H$26)</f>
+        <v>0.45141739811301979</v>
+      </c>
+      <c r="L24" s="97">
+        <f>D27*J24</f>
+        <v>0.98624888065996719</v>
+      </c>
+      <c r="P24" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q24" s="42">
+        <f t="shared" ref="Q24:Q26" si="9">C24/C$27</f>
+        <v>0.46938775510204084</v>
+      </c>
+      <c r="R24" s="43">
+        <f t="shared" si="6"/>
+        <v>0.45771144278606962</v>
+      </c>
+      <c r="S24" s="43">
+        <f t="shared" si="6"/>
+        <v>0.45217391304347826</v>
+      </c>
+      <c r="T24" s="44">
+        <f t="shared" si="6"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="U24" s="35">
+        <f>AVERAGE(Q24:T24)</f>
+        <v>0.4559293888440083</v>
+      </c>
+      <c r="W24" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="X24" s="119">
+        <f>U24</f>
+        <v>0.4559293888440083</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" ref="Z24:Z26" si="10">D5</f>
+        <v>7</v>
+      </c>
+      <c r="AA24" s="55">
+        <f t="shared" ref="AA24:AD26" si="11">$Z24/AA$22</f>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AB24" s="124">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AC24" s="124">
+        <f t="shared" si="11"/>
+        <v>1.75</v>
+      </c>
+      <c r="AD24" s="56">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B25" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="55">
+        <v>1.3</v>
+      </c>
+      <c r="D25" s="124">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="124">
+        <v>1</v>
+      </c>
+      <c r="F25" s="56">
+        <f>1/E26</f>
+        <v>4</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="49">
+        <f>SUM(C25:F25)</f>
+        <v>6.9</v>
+      </c>
+      <c r="J25" s="49">
+        <f t="shared" si="8"/>
+        <v>0.26774613584353896</v>
+      </c>
+      <c r="L25" s="97">
+        <f>E27*J25</f>
+        <v>0.98688479557714681</v>
+      </c>
+      <c r="N25">
+        <f>(L27-4)/3</f>
+        <v>5.164465478183426E-3</v>
+      </c>
+      <c r="P25" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="42">
+        <f t="shared" si="9"/>
+        <v>0.26530612244897961</v>
+      </c>
+      <c r="R25" s="43">
+        <f t="shared" si="6"/>
+        <v>0.27462686567164174</v>
+      </c>
+      <c r="S25" s="43">
+        <f t="shared" si="6"/>
+        <v>0.27130434782608692</v>
+      </c>
+      <c r="T25" s="44">
+        <f t="shared" si="6"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="U25" s="35">
+        <f>AVERAGE(Q25:T25)</f>
+        <v>0.26947600065334376</v>
+      </c>
+      <c r="W25" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="X25" s="119">
+        <f>U25</f>
+        <v>0.26947600065334376</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AA25" s="55">
+        <f t="shared" si="11"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AB25" s="124">
+        <f t="shared" si="11"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AC25" s="124">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AD25" s="56">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B26" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="D26" s="74">
+        <v>0.15</v>
+      </c>
+      <c r="E26" s="74">
         <v>0.25</v>
       </c>
-      <c r="W11" s="67" t="s">
+      <c r="F26" s="75">
+        <v>1</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="52">
+        <f>SUM(C26:F26)</f>
+        <v>1.7</v>
+      </c>
+      <c r="J26" s="52">
+        <f t="shared" si="8"/>
+        <v>6.5966439265799454E-2</v>
+      </c>
+      <c r="L26" s="98">
+        <f>F27*J26</f>
+        <v>0.98949658898699178</v>
+      </c>
+      <c r="P26" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q26" s="45">
+        <f t="shared" si="9"/>
+        <v>6.1224489795918373E-2</v>
+      </c>
+      <c r="R26" s="46">
+        <f t="shared" si="6"/>
+        <v>6.8656716417910435E-2</v>
+      </c>
+      <c r="S26" s="46">
+        <f t="shared" si="6"/>
+        <v>6.7826086956521731E-2</v>
+      </c>
+      <c r="T26" s="47">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="U26" s="35">
+        <f>AVERAGE(Q26:T26)</f>
+        <v>6.6093489959254306E-2</v>
+      </c>
+      <c r="W26" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="X26" s="120">
+        <f>U26</f>
+        <v>6.6093489959254306E-2</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="AA26" s="73">
+        <f t="shared" si="11"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB26" s="74">
+        <f t="shared" si="11"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AC26" s="74">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="AD26" s="75">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B27" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="43">
+        <f>SUM(C23:C26)</f>
+        <v>4.8999999999999995</v>
+      </c>
+      <c r="D27" s="43">
+        <f>SUM(D23:D26)</f>
+        <v>2.1847826086956523</v>
+      </c>
+      <c r="E27" s="43">
+        <f>SUM(E23:E26)</f>
+        <v>3.6858974358974361</v>
+      </c>
+      <c r="F27" s="43">
+        <f>SUM(F23:F26)</f>
+        <v>15</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="L27" s="128">
+        <f>SUM(L23:L26)</f>
+        <v>4.0154933964345503</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B29" s="76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B30" s="112"/>
+      <c r="C30" s="125" t="s">
         <v>59</v>
       </c>
-      <c r="X11" s="129">
-        <f>U11</f>
+      <c r="D30" s="126" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="126" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="N30" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="R30" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="T30" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="U30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W30" s="117"/>
+      <c r="X30" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA30">
+        <f>Z31</f>
+        <v>5</v>
+      </c>
+      <c r="AB30">
+        <f>Z32</f>
+        <v>2</v>
+      </c>
+      <c r="AC30">
+        <f>Z33</f>
+        <v>9</v>
+      </c>
+      <c r="AD30">
+        <f>Z34</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B31" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="70">
+        <v>1</v>
+      </c>
+      <c r="D31" s="71">
+        <f>1/C32</f>
+        <v>2</v>
+      </c>
+      <c r="E31" s="71">
+        <f>1/C33</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F31" s="72">
+        <f>1/C34</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G31" s="43"/>
+      <c r="H31" s="51">
+        <f>SUM(C31:F31)</f>
+        <v>4.2222222222222223</v>
+      </c>
+      <c r="J31" s="51">
+        <f>H31/SUM(H$31:H$34)</f>
+        <v>0.19565297341031956</v>
+      </c>
+      <c r="L31" s="96">
+        <f>C35*J31</f>
+        <v>0.93913427236953384</v>
+      </c>
+      <c r="N31" s="116">
+        <f>N33*0.9</f>
+        <v>-2.0918686330037681E-3</v>
+      </c>
+      <c r="P31" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q31" s="39">
+        <f>C31/C$35</f>
+        <v>0.20833333333333334</v>
+      </c>
+      <c r="R31" s="40">
+        <f t="shared" ref="R31:T34" si="12">D31/D$35</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="S31" s="40">
+        <f t="shared" si="12"/>
+        <v>0.21551724137931039</v>
+      </c>
+      <c r="T31" s="41">
+        <f t="shared" si="12"/>
+        <v>0.20817843866171001</v>
+      </c>
+      <c r="U31" s="35">
+        <f t="shared" ref="U31:U34" si="13">AVERAGE(Q31:T31)</f>
+        <v>0.20346179879813389</v>
+      </c>
+      <c r="W31" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="X31" s="118">
+        <f t="shared" ref="X31:X34" si="14">U31</f>
+        <v>0.20346179879813389</v>
+      </c>
+      <c r="Z31">
+        <f>E4</f>
+        <v>5</v>
+      </c>
+      <c r="AA31" s="70">
+        <f>$Z31/AA$30</f>
+        <v>1</v>
+      </c>
+      <c r="AB31" s="71">
+        <f t="shared" ref="AB31:AD31" si="15">$Z31/AB$30</f>
+        <v>2.5</v>
+      </c>
+      <c r="AC31" s="71">
+        <f t="shared" si="15"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="AD31" s="72">
+        <f t="shared" si="15"/>
+        <v>0.7142857142857143</v>
+      </c>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B32" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="55">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="124">
+        <v>1</v>
+      </c>
+      <c r="E32" s="124">
+        <f>1/D33</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="F32" s="56">
+        <f>1/D34</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="G32" s="43"/>
+      <c r="H32" s="49">
+        <f>SUM(C32:F32)</f>
+        <v>2.0079365079365079</v>
+      </c>
+      <c r="J32" s="49">
+        <f t="shared" ref="J32:J34" si="16">H32/SUM(H$31:H$34)</f>
+        <v>9.3045492994005358E-2</v>
+      </c>
+      <c r="L32" s="97">
+        <f>D35*J32</f>
+        <v>1.023500422934059</v>
+      </c>
+      <c r="P32" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q32" s="42">
+        <f t="shared" ref="Q32:Q34" si="17">C32/C$35</f>
+        <v>0.10416666666666667</v>
+      </c>
+      <c r="R32" s="43">
+        <f t="shared" si="12"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="S32" s="43">
+        <f t="shared" si="12"/>
+        <v>8.6206896551724144E-2</v>
+      </c>
+      <c r="T32" s="44">
+        <f t="shared" si="12"/>
+        <v>8.9219330855018583E-2</v>
+      </c>
+      <c r="U32" s="35">
+        <f t="shared" si="13"/>
+        <v>9.2625496245625077E-2</v>
+      </c>
+      <c r="W32" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="X32" s="119">
+        <f t="shared" si="14"/>
+        <v>9.2625496245625077E-2</v>
+      </c>
+      <c r="Z32">
+        <f t="shared" ref="Z32:Z34" si="18">E5</f>
+        <v>2</v>
+      </c>
+      <c r="AA32" s="55">
+        <f t="shared" ref="AA32:AD34" si="19">$Z32/AA$30</f>
+        <v>0.4</v>
+      </c>
+      <c r="AB32" s="124">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AC32" s="124">
+        <f t="shared" si="19"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="AD32" s="56">
+        <f t="shared" si="19"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B33" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="55">
+        <v>1.8</v>
+      </c>
+      <c r="D33" s="124">
+        <v>4.5</v>
+      </c>
+      <c r="E33" s="124">
+        <v>1</v>
+      </c>
+      <c r="F33" s="56">
+        <f>1/E34</f>
+        <v>1.25</v>
+      </c>
+      <c r="G33" s="43"/>
+      <c r="H33" s="49">
+        <f>SUM(C33:F33)</f>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="J33" s="49">
+        <f t="shared" si="16"/>
+        <v>0.39619727115589715</v>
+      </c>
+      <c r="L33" s="97">
+        <f>E35*J33</f>
+        <v>1.021308521201868</v>
+      </c>
+      <c r="N33">
+        <f>(L35-4)/3</f>
+        <v>-2.324298481115298E-3</v>
+      </c>
+      <c r="P33" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="42">
+        <f t="shared" si="17"/>
+        <v>0.375</v>
+      </c>
+      <c r="R33" s="43">
+        <f t="shared" si="12"/>
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="S33" s="43">
+        <f t="shared" si="12"/>
+        <v>0.38793103448275867</v>
+      </c>
+      <c r="T33" s="44">
+        <f t="shared" si="12"/>
+        <v>0.3903345724907063</v>
+      </c>
+      <c r="U33" s="35">
+        <f>AVERAGE(Q33:T33)</f>
+        <v>0.39058912901609355</v>
+      </c>
+      <c r="W33" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="X33" s="119">
+        <f>U33</f>
+        <v>0.39058912901609355</v>
+      </c>
+      <c r="Z33">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="AA33" s="55">
+        <f t="shared" si="19"/>
+        <v>1.8</v>
+      </c>
+      <c r="AB33" s="124">
+        <f t="shared" si="19"/>
+        <v>4.5</v>
+      </c>
+      <c r="AC33" s="124">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+      <c r="AD33" s="56">
+        <f t="shared" si="19"/>
+        <v>1.2857142857142858</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B34" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="73">
+        <v>1.5</v>
+      </c>
+      <c r="D34" s="74">
+        <v>3.5</v>
+      </c>
+      <c r="E34" s="74">
+        <v>0.8</v>
+      </c>
+      <c r="F34" s="75">
+        <v>1</v>
+      </c>
+      <c r="G34" s="43"/>
+      <c r="H34" s="52">
+        <f>SUM(C34:F34)</f>
+        <v>6.8</v>
+      </c>
+      <c r="J34" s="52">
+        <f t="shared" si="16"/>
+        <v>0.31510426243977785</v>
+      </c>
+      <c r="L34" s="98">
+        <f>F35*J34</f>
+        <v>1.0090838880511934</v>
+      </c>
+      <c r="P34" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q34" s="45">
+        <f t="shared" si="17"/>
+        <v>0.3125</v>
+      </c>
+      <c r="R34" s="46">
+        <f t="shared" si="12"/>
+        <v>0.31818181818181818</v>
+      </c>
+      <c r="S34" s="46">
+        <f t="shared" si="12"/>
+        <v>0.31034482758620696</v>
+      </c>
+      <c r="T34" s="47">
+        <f t="shared" si="12"/>
+        <v>0.31226765799256506</v>
+      </c>
+      <c r="U34" s="35">
+        <f t="shared" si="13"/>
+        <v>0.31332357594014754</v>
+      </c>
+      <c r="W34" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="X34" s="120">
+        <f t="shared" si="14"/>
+        <v>0.31332357594014754</v>
+      </c>
+      <c r="Z34">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="AA34" s="73">
+        <f t="shared" si="19"/>
+        <v>1.4</v>
+      </c>
+      <c r="AB34" s="74">
+        <f t="shared" si="19"/>
+        <v>3.5</v>
+      </c>
+      <c r="AC34" s="74">
+        <f t="shared" si="19"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="AD34" s="75">
+        <f t="shared" si="19"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B35" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="43">
+        <f>SUM(C31:C34)</f>
+        <v>4.8</v>
+      </c>
+      <c r="D35" s="43">
+        <f>SUM(D31:D34)</f>
+        <v>11</v>
+      </c>
+      <c r="E35" s="43">
+        <f>SUM(E31:E34)</f>
+        <v>2.5777777777777775</v>
+      </c>
+      <c r="F35" s="43">
+        <f>SUM(F31:F34)</f>
+        <v>3.2023809523809526</v>
+      </c>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="L35" s="128">
+        <f>SUM(L31:L34)</f>
+        <v>3.9930271045566541</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B37" s="76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="110" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="110" t="s">
+        <v>60</v>
+      </c>
+      <c r="E38" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38" s="111" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="J38" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="N38" t="s">
+        <v>82</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="R38" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="S38" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="T38" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="U38" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W38" s="117"/>
+      <c r="X38" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA38">
+        <f>Z39</f>
+        <v>3</v>
+      </c>
+      <c r="AB38">
+        <f>Z40</f>
+        <v>10</v>
+      </c>
+      <c r="AC38">
+        <f>Z41</f>
+        <v>7</v>
+      </c>
+      <c r="AD38">
+        <f>Z42</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B39" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="70">
+        <v>1</v>
+      </c>
+      <c r="D39" s="71">
+        <f>1/C40</f>
+        <v>0.29411764705882354</v>
+      </c>
+      <c r="E39" s="71">
+        <f>1/C41</f>
+        <v>0.43478260869565222</v>
+      </c>
+      <c r="F39" s="72">
+        <f>1/C42</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G39" s="43"/>
+      <c r="H39" s="51">
+        <f>SUM(C39:F39)</f>
+        <v>5.0622335890878087</v>
+      </c>
+      <c r="J39" s="51">
+        <f>H39/SUM(H$39:H$42)</f>
+        <v>0.15290305576201474</v>
+      </c>
+      <c r="L39" s="96">
+        <f>C43*J39</f>
+        <v>1.0703213903341031</v>
+      </c>
+      <c r="N39" s="116">
+        <f>N41*0.9</f>
+        <v>7.6576267875735132E-3</v>
+      </c>
+      <c r="P39" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q39" s="39">
+        <f>C39/C$43</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="R39" s="40">
+        <f t="shared" ref="R39:T42" si="20">D39/D$43</f>
+        <v>0.1404494382022472</v>
+      </c>
+      <c r="S39" s="40">
+        <f t="shared" si="20"/>
+        <v>0.14428527259610432</v>
+      </c>
+      <c r="T39" s="41">
+        <f t="shared" si="20"/>
+        <v>0.15873015873015875</v>
+      </c>
+      <c r="U39" s="35">
+        <f t="shared" ref="U39:U42" si="21">AVERAGE(Q39:T39)</f>
+        <v>0.14658050309641327</v>
+      </c>
+      <c r="W39" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="X39" s="118">
+        <f t="shared" ref="X39:X42" si="22">U39</f>
+        <v>0.14658050309641327</v>
+      </c>
+      <c r="Z39">
+        <f>F4</f>
+        <v>3</v>
+      </c>
+      <c r="AA39" s="70">
+        <f>$Z39/AA$38</f>
+        <v>1</v>
+      </c>
+      <c r="AB39" s="71">
+        <f t="shared" ref="AB39:AD39" si="23">$Z39/AB$38</f>
+        <v>0.3</v>
+      </c>
+      <c r="AC39" s="71">
+        <f t="shared" si="23"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AD39" s="72">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B40" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="55">
+        <v>3.4</v>
+      </c>
+      <c r="D40" s="124">
+        <v>1</v>
+      </c>
+      <c r="E40" s="124">
+        <f>1/D41</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="F40" s="56">
+        <f>1/D42</f>
+        <v>10</v>
+      </c>
+      <c r="G40" s="43"/>
+      <c r="H40" s="49">
+        <f>SUM(C40:F40)</f>
+        <v>15.828571428571429</v>
+      </c>
+      <c r="J40" s="49">
+        <f t="shared" ref="J40:J42" si="24">H40/SUM(H$39:H$42)</f>
+        <v>0.47809665381561467</v>
+      </c>
+      <c r="L40" s="97">
+        <f>D43*J40</f>
+        <v>1.0011906397550518</v>
+      </c>
+      <c r="P40" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q40" s="42">
+        <f t="shared" ref="Q40:Q42" si="25">C40/C$43</f>
+        <v>0.48571428571428571</v>
+      </c>
+      <c r="R40" s="43">
+        <f t="shared" si="20"/>
+        <v>0.47752808988764045</v>
+      </c>
+      <c r="S40" s="43">
+        <f t="shared" si="20"/>
+        <v>0.47408018138719987</v>
+      </c>
+      <c r="T40" s="44">
+        <f t="shared" si="20"/>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="U40" s="35">
+        <f t="shared" si="21"/>
+        <v>0.47837825829490055</v>
+      </c>
+      <c r="W40" s="67" t="s">
+        <v>60</v>
+      </c>
+      <c r="X40" s="119">
+        <f t="shared" si="22"/>
+        <v>0.47837825829490055</v>
+      </c>
+      <c r="Z40">
+        <f t="shared" ref="Z40:Z42" si="26">F5</f>
+        <v>10</v>
+      </c>
+      <c r="AA40" s="55">
+        <f t="shared" ref="AA40:AD42" si="27">$Z40/AA$38</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="AB40" s="124">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AC40" s="124">
+        <f t="shared" si="27"/>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="AD40" s="56">
+        <f t="shared" si="27"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B41" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="55">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D41" s="124">
+        <v>0.7</v>
+      </c>
+      <c r="E41" s="124">
+        <v>1</v>
+      </c>
+      <c r="F41" s="56">
+        <f>1/E42</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G41" s="43"/>
+      <c r="H41" s="49">
+        <f>SUM(C41:F41)</f>
+        <v>10.666666666666668</v>
+      </c>
+      <c r="J41" s="49">
+        <f t="shared" si="24"/>
+        <v>0.32218306394313384</v>
+      </c>
+      <c r="L41" s="97">
+        <f>E43*J41</f>
+        <v>0.97085163647212036</v>
+      </c>
+      <c r="N41">
+        <f>(L43-4)/3</f>
+        <v>8.5084742084150147E-3</v>
+      </c>
+      <c r="P41" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q41" s="42">
+        <f t="shared" si="25"/>
+        <v>0.32857142857142857</v>
+      </c>
+      <c r="R41" s="43">
+        <f t="shared" si="20"/>
+        <v>0.3342696629213483</v>
+      </c>
+      <c r="S41" s="43">
+        <f t="shared" si="20"/>
+        <v>0.33185612697103989</v>
+      </c>
+      <c r="T41" s="44">
+        <f t="shared" si="20"/>
+        <v>0.3174603174603175</v>
+      </c>
+      <c r="U41" s="35">
+        <f t="shared" si="21"/>
+        <v>0.32803938398103355</v>
+      </c>
+      <c r="W41" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="X41" s="119">
+        <f t="shared" si="22"/>
+        <v>0.32803938398103355</v>
+      </c>
+      <c r="Z41">
+        <f t="shared" si="26"/>
+        <v>7</v>
+      </c>
+      <c r="AA41" s="55">
+        <f t="shared" si="27"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="AB41" s="124">
+        <f t="shared" si="27"/>
+        <v>0.7</v>
+      </c>
+      <c r="AC41" s="124">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="AD41" s="56">
+        <f t="shared" si="27"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B42" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="73">
+        <v>0.3</v>
+      </c>
+      <c r="D42" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="74">
+        <v>0.15</v>
+      </c>
+      <c r="F42" s="75">
+        <v>1</v>
+      </c>
+      <c r="G42" s="43"/>
+      <c r="H42" s="52">
+        <f>SUM(C42:F42)</f>
+        <v>1.55</v>
+      </c>
+      <c r="J42" s="52">
+        <f t="shared" si="24"/>
+        <v>4.6817226479236633E-2</v>
+      </c>
+      <c r="L42" s="98">
+        <f>F43*J42</f>
+        <v>0.98316175606396927</v>
+      </c>
+      <c r="P42" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q42" s="45">
+        <f t="shared" si="25"/>
+        <v>4.2857142857142858E-2</v>
+      </c>
+      <c r="R42" s="46">
+        <f t="shared" si="20"/>
+        <v>4.7752808988764044E-2</v>
+      </c>
+      <c r="S42" s="46">
+        <f t="shared" si="20"/>
+        <v>4.9778419045655983E-2</v>
+      </c>
+      <c r="T42" s="47">
+        <f t="shared" si="20"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="U42" s="35">
+        <f t="shared" si="21"/>
+        <v>4.700185462765262E-2</v>
+      </c>
+      <c r="W42" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="X42" s="120">
+        <f t="shared" si="22"/>
+        <v>4.700185462765262E-2</v>
+      </c>
+      <c r="Z42">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="AA42" s="73">
+        <f t="shared" si="27"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB42" s="74">
+        <f t="shared" si="27"/>
+        <v>0.1</v>
+      </c>
+      <c r="AC42" s="74">
+        <f t="shared" si="27"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AD42" s="75">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B43" s="76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" s="43">
+        <f>SUM(C39:C42)</f>
+        <v>7</v>
+      </c>
+      <c r="D43" s="43">
+        <f>SUM(D39:D42)</f>
+        <v>2.0941176470588236</v>
+      </c>
+      <c r="E43" s="43">
+        <f>SUM(E39:E42)</f>
+        <v>3.0133540372670806</v>
+      </c>
+      <c r="F43" s="43">
+        <f>SUM(F39:F42)</f>
+        <v>21</v>
+      </c>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="L43" s="128">
+        <f>SUM(L39:L42)</f>
+        <v>4.025525422625245</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B45" s="76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="110">
+        <v>1</v>
+      </c>
+      <c r="D46" s="110">
+        <v>2</v>
+      </c>
+      <c r="E46" s="110">
+        <v>3</v>
+      </c>
+      <c r="F46" s="111">
+        <v>4</v>
+      </c>
+      <c r="H46" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="99" t="s">
+        <v>76</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="N46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="100" t="s">
+        <v>59</v>
+      </c>
+      <c r="R46" s="100" t="s">
+        <v>60</v>
+      </c>
+      <c r="S46" s="100" t="s">
+        <v>61</v>
+      </c>
+      <c r="T46" s="101" t="s">
+        <v>62</v>
+      </c>
+      <c r="U46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W46" s="117"/>
+      <c r="X46" s="122" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA46">
+        <v>1</v>
+      </c>
+      <c r="AB46">
+        <v>2</v>
+      </c>
+      <c r="AC46">
+        <v>3</v>
+      </c>
+      <c r="AD46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B47" s="121" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="70">
+        <v>1</v>
+      </c>
+      <c r="D47" s="71">
+        <f>1/C48</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="E47" s="71">
+        <f>1/C49</f>
+        <v>1</v>
+      </c>
+      <c r="F47" s="72">
+        <f>1/C50</f>
+        <v>0.76923076923076916</v>
+      </c>
+      <c r="G47" s="43"/>
+      <c r="H47" s="51">
+        <f>SUM(C47:F47)</f>
+        <v>4.197802197802198</v>
+      </c>
+      <c r="J47" s="51">
+        <f>H47/SUM(H$47:H$50)</f>
+        <v>0.22096251735307729</v>
+      </c>
+      <c r="L47" s="96">
+        <f>C51*J47</f>
+        <v>0.88385006941230915</v>
+      </c>
+      <c r="N47" s="116">
+        <f>N49*0.9</f>
+        <v>0.11831771556378225</v>
+      </c>
+      <c r="P47" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q47" s="39">
+        <f>C47/C$51</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B12" s="67" t="s">
+      <c r="R47" s="40">
+        <f t="shared" ref="R47:T50" si="28">D47/D$51</f>
+        <v>0.45662100456621008</v>
+      </c>
+      <c r="S47" s="40">
+        <f t="shared" si="28"/>
+        <v>0.16853932584269662</v>
+      </c>
+      <c r="T47" s="41">
+        <f t="shared" si="28"/>
+        <v>0.12958963282937364</v>
+      </c>
+      <c r="U47" s="35">
+        <f t="shared" ref="U47:U50" si="29">AVERAGE(Q47:T47)</f>
+        <v>0.25118749080957004</v>
+      </c>
+      <c r="W47" s="67" t="s">
+        <v>59</v>
+      </c>
+      <c r="X47" s="118">
+        <f t="shared" ref="X47:X50" si="30">U47</f>
+        <v>0.25118749080957004</v>
+      </c>
+      <c r="Z47">
+        <f>AA46</f>
+        <v>1</v>
+      </c>
+      <c r="AA47" s="70">
+        <f>$Z47/AA$38</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AB47" s="71">
+        <f t="shared" ref="AB47:AD47" si="31">$Z47/AB$38</f>
+        <v>0.1</v>
+      </c>
+      <c r="AC47" s="71">
+        <f t="shared" si="31"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AD47" s="72">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B48" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="55">
-        <v>1.5</v>
-      </c>
-      <c r="D12" s="94">
-        <v>1</v>
-      </c>
-      <c r="E12" s="94">
-        <f>E11/D11</f>
-        <v>2.1428571428571432</v>
-      </c>
-      <c r="F12" s="56">
-        <f>F11/D11</f>
-        <v>1.875</v>
-      </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="49">
-        <f>SUM(C12:F12)</f>
-        <v>6.5178571428571432</v>
-      </c>
-      <c r="J12" s="49">
-        <f>H12/SUM(H$11:H$14)</f>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="L12" s="103">
-        <f t="shared" ref="L12:L14" si="1">(1/4)*(((C12-AVERAGE(C12:F12))^2)+((D12-AVERAGE(C12:F12))^2)+((E12-AVERAGE(C12:F12))^2)+((C12-AVERAGE(C12:F12))^2))</f>
-        <v>0.17332987882653075</v>
-      </c>
-      <c r="P12" s="67" t="s">
+      <c r="C48" s="55">
+        <v>0.7</v>
+      </c>
+      <c r="D48" s="124">
+        <v>1</v>
+      </c>
+      <c r="E48" s="124">
+        <f>1/D49</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="F48" s="56">
+        <f>1/D50</f>
+        <v>2.5</v>
+      </c>
+      <c r="G48" s="43"/>
+      <c r="H48" s="49">
+        <f>SUM(C48:F48)</f>
+        <v>7.5333333333333332</v>
+      </c>
+      <c r="J48" s="49">
+        <f t="shared" ref="J48:J50" si="32">H48/SUM(H$47:H$50)</f>
+        <v>0.39653709702298318</v>
+      </c>
+      <c r="L48" s="97">
+        <f>D51*J48</f>
+        <v>1.2405946321147616</v>
+      </c>
+      <c r="P48" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="Q12" s="42">
-        <f t="shared" ref="Q12:Q14" si="2">C12/C$15</f>
-        <v>0.375</v>
-      </c>
-      <c r="R12" s="43">
-        <f t="shared" si="0"/>
-        <v>0.37500000000000011</v>
-      </c>
-      <c r="S12" s="43">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="T12" s="44">
-        <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="U12" s="35">
-        <f>AVERAGE(Q12:T12)</f>
-        <v>0.375</v>
-      </c>
-      <c r="W12" s="67" t="s">
+      <c r="Q48" s="42">
+        <f t="shared" ref="Q48:Q50" si="33">C48/C$51</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="R48" s="43">
+        <f t="shared" si="28"/>
+        <v>0.31963470319634701</v>
+      </c>
+      <c r="S48" s="43">
+        <f t="shared" si="28"/>
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="T48" s="44">
+        <f t="shared" si="28"/>
+        <v>0.42116630669546434</v>
+      </c>
+      <c r="U48" s="35">
+        <f t="shared" si="29"/>
+        <v>0.36939969067520001</v>
+      </c>
+      <c r="W48" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="X12" s="130">
-        <f>U12</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B13" s="67" t="s">
+      <c r="X48" s="119">
+        <f t="shared" si="30"/>
+        <v>0.36939969067520001</v>
+      </c>
+      <c r="Z48">
+        <f>AB46</f>
+        <v>2</v>
+      </c>
+      <c r="AA48" s="55">
+        <f t="shared" ref="AA48:AD50" si="34">$Z48/AA$38</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AB48" s="124">
+        <f t="shared" si="34"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC48" s="124">
+        <f t="shared" si="34"/>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AD48" s="56">
+        <f t="shared" si="34"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B49" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="55">
-        <v>0.7</v>
-      </c>
-      <c r="D13" s="94">
-        <f>1/E12</f>
-        <v>0.46666666666666656</v>
-      </c>
-      <c r="E13" s="94">
-        <v>1</v>
-      </c>
-      <c r="F13" s="56">
-        <f>F12/E12</f>
-        <v>0.87499999999999989</v>
-      </c>
-      <c r="G13" s="43"/>
-      <c r="H13" s="49">
-        <f>SUM(C13:F13)</f>
-        <v>3.0416666666666665</v>
-      </c>
-      <c r="J13" s="49">
-        <f t="shared" ref="J13:J14" si="3">H13/SUM(H$11:H$14)</f>
-        <v>0.17500000000000002</v>
-      </c>
-      <c r="L13" s="103">
-        <f t="shared" si="1"/>
-        <v>3.774739583333335E-2</v>
-      </c>
-      <c r="P13" s="67" t="s">
+      <c r="C49" s="55">
+        <v>1</v>
+      </c>
+      <c r="D49" s="124">
+        <v>0.3</v>
+      </c>
+      <c r="E49" s="124">
+        <v>1</v>
+      </c>
+      <c r="F49" s="56">
+        <f>1/E50</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G49" s="43"/>
+      <c r="H49" s="49">
+        <f>SUM(C49:F49)</f>
+        <v>3.9666666666666668</v>
+      </c>
+      <c r="J49" s="49">
+        <f t="shared" si="32"/>
+        <v>0.20879608206077435</v>
+      </c>
+      <c r="L49" s="97">
+        <f>E51*J49</f>
+        <v>1.2388567535605945</v>
+      </c>
+      <c r="N49">
+        <f>(L51-4)/3</f>
+        <v>0.13146412840420249</v>
+      </c>
+      <c r="P49" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="42">
-        <f t="shared" si="2"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="R13" s="43">
-        <f t="shared" si="0"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="S13" s="43">
-        <f t="shared" si="0"/>
-        <v>0.17499999999999996</v>
-      </c>
-      <c r="T13" s="44">
-        <f t="shared" si="0"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="U13" s="35">
-        <f>AVERAGE(Q13:T13)</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="W13" s="67" t="s">
+      <c r="Q49" s="42">
+        <f t="shared" si="33"/>
+        <v>0.25</v>
+      </c>
+      <c r="R49" s="43">
+        <f t="shared" si="28"/>
+        <v>9.5890410958904104E-2</v>
+      </c>
+      <c r="S49" s="43">
+        <f t="shared" si="28"/>
+        <v>0.16853932584269662</v>
+      </c>
+      <c r="T49" s="44">
+        <f t="shared" si="28"/>
+        <v>0.28077753779697623</v>
+      </c>
+      <c r="U49" s="35">
+        <f t="shared" si="29"/>
+        <v>0.19880181864964425</v>
+      </c>
+      <c r="W49" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="X13" s="130">
-        <f>U13</f>
-        <v>0.17499999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B14" s="68" t="s">
+      <c r="X49" s="119">
+        <f t="shared" si="30"/>
+        <v>0.19880181864964425</v>
+      </c>
+      <c r="Z49">
+        <f>AC46</f>
+        <v>3</v>
+      </c>
+      <c r="AA49" s="55">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="AB49" s="124">
+        <f t="shared" si="34"/>
+        <v>0.3</v>
+      </c>
+      <c r="AC49" s="124">
+        <f t="shared" si="34"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="AD49" s="56">
+        <f t="shared" si="34"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B50" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="73">
-        <v>0.8</v>
-      </c>
-      <c r="D14" s="74">
-        <f>1/F12</f>
-        <v>0.53333333333333333</v>
-      </c>
-      <c r="E14" s="74">
-        <f>1/F13</f>
-        <v>1.142857142857143</v>
-      </c>
-      <c r="F14" s="75">
-        <v>1</v>
-      </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="52">
-        <f>SUM(C14:F14)</f>
-        <v>3.4761904761904763</v>
-      </c>
-      <c r="J14" s="52">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="L14" s="104">
-        <f t="shared" si="1"/>
-        <v>4.9302721088435392E-2</v>
-      </c>
-      <c r="P14" s="68" t="s">
+      <c r="C50" s="73">
+        <v>1.3</v>
+      </c>
+      <c r="D50" s="74">
+        <v>0.4</v>
+      </c>
+      <c r="E50" s="74">
+        <v>0.6</v>
+      </c>
+      <c r="F50" s="75">
+        <v>1</v>
+      </c>
+      <c r="G50" s="43"/>
+      <c r="H50" s="52">
+        <f>SUM(C50:F50)</f>
+        <v>3.3000000000000003</v>
+      </c>
+      <c r="J50" s="52">
+        <f t="shared" si="32"/>
+        <v>0.17370430356316521</v>
+      </c>
+      <c r="L50" s="98">
+        <f>F51*J50</f>
+        <v>1.0310909301249422</v>
+      </c>
+      <c r="P50" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="Q14" s="45">
-        <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="R14" s="46">
-        <f t="shared" si="0"/>
-        <v>0.20000000000000004</v>
-      </c>
-      <c r="S14" s="46">
-        <f t="shared" si="0"/>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="T14" s="47">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
-      </c>
-      <c r="U14" s="35">
-        <f>AVERAGE(Q14:T14)</f>
-        <v>0.2</v>
-      </c>
-      <c r="W14" s="68" t="s">
+      <c r="Q50" s="45">
+        <f t="shared" si="33"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="R50" s="46">
+        <f t="shared" si="28"/>
+        <v>0.12785388127853883</v>
+      </c>
+      <c r="S50" s="46">
+        <f t="shared" si="28"/>
+        <v>0.10112359550561797</v>
+      </c>
+      <c r="T50" s="47">
+        <f t="shared" si="28"/>
+        <v>0.16846652267818574</v>
+      </c>
+      <c r="U50" s="35">
+        <f t="shared" si="29"/>
+        <v>0.18061099986558565</v>
+      </c>
+      <c r="W50" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="X14" s="131">
-        <f>U14</f>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B15" s="77" t="s">
+      <c r="X50" s="120">
+        <f t="shared" si="30"/>
+        <v>0.18061099986558565</v>
+      </c>
+      <c r="Z50">
+        <f>AD46</f>
+        <v>4</v>
+      </c>
+      <c r="AA50" s="73">
+        <f t="shared" si="34"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="AB50" s="74">
+        <f t="shared" si="34"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC50" s="74">
+        <f t="shared" si="34"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="AD50" s="75">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B51" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="43">
-        <f>SUM(C11:C14)</f>
+      <c r="C51" s="43">
+        <f>SUM(C47:C50)</f>
         <v>4</v>
       </c>
-      <c r="D15" s="43">
-        <f>SUM(D11:D14)</f>
-        <v>2.6666666666666661</v>
-      </c>
-      <c r="E15" s="43">
-        <f>SUM(E11:E14)</f>
-        <v>5.7142857142857153</v>
-      </c>
-      <c r="F15" s="43">
-        <f>SUM(F11:F14)</f>
-        <v>5</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-    </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B17" s="77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
-      <c r="C18" s="118" t="s">
+      <c r="D51" s="43">
+        <f>SUM(D47:D50)</f>
+        <v>3.1285714285714286</v>
+      </c>
+      <c r="E51" s="43">
+        <f>SUM(E47:E50)</f>
+        <v>5.9333333333333336</v>
+      </c>
+      <c r="F51" s="43">
+        <f>SUM(F47:F50)</f>
+        <v>5.9358974358974361</v>
+      </c>
+      <c r="G51" s="43"/>
+      <c r="H51" s="43"/>
+      <c r="I51" s="43"/>
+      <c r="L51" s="128">
+        <f>SUM(L47:L50)</f>
+        <v>4.3943923852126074</v>
+      </c>
+    </row>
+    <row r="54" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B54" s="112"/>
+      <c r="C54" s="113">
+        <v>1</v>
+      </c>
+      <c r="D54" s="114">
+        <v>2</v>
+      </c>
+      <c r="E54" s="114">
+        <v>3</v>
+      </c>
+      <c r="F54" s="115">
+        <v>4</v>
+      </c>
+      <c r="H54" s="2"/>
+      <c r="J54" s="2"/>
+    </row>
+    <row r="55" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B55" s="67" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="118" t="s">
+      <c r="C55" s="42">
+        <f>$J15</f>
+        <v>0.25034359568972075</v>
+      </c>
+      <c r="D55" s="43">
+        <f>$J23</f>
+        <v>0.21487002677764175</v>
+      </c>
+      <c r="E55" s="43">
+        <f>$J31</f>
+        <v>0.19565297341031956</v>
+      </c>
+      <c r="F55" s="44">
+        <f>$J39</f>
+        <v>0.15290305576201474</v>
+      </c>
+      <c r="H55" s="93">
+        <f>$J47</f>
+        <v>0.22096251735307729</v>
+      </c>
+      <c r="J55" s="96">
+        <f t="array" ref="J55:J58">MMULT(C55:F58,H55:H58)</f>
+        <v>0.20793198086791459</v>
+      </c>
+    </row>
+    <row r="56" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B56" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="118" t="s">
+      <c r="C56" s="42">
+        <f>$J16</f>
+        <v>0.31176999905986846</v>
+      </c>
+      <c r="D56" s="43">
+        <f>$J24</f>
+        <v>0.45141739811301979</v>
+      </c>
+      <c r="E56" s="43">
+        <f>$J32</f>
+        <v>9.3045492994005358E-2</v>
+      </c>
+      <c r="F56" s="44">
+        <f>$J40</f>
+        <v>0.47809665381561467</v>
+      </c>
+      <c r="G56" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="H56" s="94">
+        <f>$J48</f>
+        <v>0.39653709702298318</v>
+      </c>
+      <c r="I56" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="J56" s="97">
+        <v>0.35036820909832278</v>
+      </c>
+      <c r="K56" s="79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B57" s="67" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="119" t="s">
+      <c r="C57" s="42">
+        <f>$J17</f>
+        <v>0.1498032439014563</v>
+      </c>
+      <c r="D57" s="43">
+        <f>$J25</f>
+        <v>0.26774613584353896</v>
+      </c>
+      <c r="E57" s="43">
+        <f>$J33</f>
+        <v>0.39619727115589715</v>
+      </c>
+      <c r="F57" s="44">
+        <f>$J41</f>
+        <v>0.32218306394313384</v>
+      </c>
+      <c r="H57" s="94">
+        <f>$J49</f>
+        <v>0.20879608206077435</v>
+      </c>
+      <c r="J57" s="97">
+        <v>0.2779612000092514</v>
+      </c>
+    </row>
+    <row r="58" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="B58" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="L18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="R18" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="S18" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="T18" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="U18" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="W18" s="128"/>
-      <c r="X18" s="133" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B19" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="70">
-        <v>1</v>
-      </c>
-      <c r="D19" s="71">
-        <f>1/C20</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E19" s="71">
-        <f>1/C21</f>
-        <v>0.5</v>
-      </c>
-      <c r="F19" s="72">
-        <f>1/C22</f>
-        <v>2.5</v>
-      </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="51">
-        <f>SUM(C19:F19)</f>
-        <v>4.333333333333333</v>
-      </c>
-      <c r="J19" s="51">
-        <f>H19/SUM(H$19:H$22)</f>
-        <v>0.15624999999999997</v>
-      </c>
-      <c r="L19" s="102">
-        <f>(1/4)*(((C19-AVERAGE(C19:F19))^2)+((D19-AVERAGE(C19:F19))^2)+((E19-AVERAGE(C19:F19))^2)+((C19-AVERAGE(C19:F19))^2))</f>
-        <v>0.22916666666666663</v>
-      </c>
-      <c r="N19" s="127">
-        <f>SUM(L19:L22)/4</f>
-        <v>0.81124999999999992</v>
-      </c>
-      <c r="P19" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q19" s="39">
-        <f>C19/C$23</f>
-        <v>0.15625</v>
-      </c>
-      <c r="R19" s="40">
-        <f t="shared" ref="R19:T22" si="4">D19/D$23</f>
-        <v>0.15625</v>
-      </c>
-      <c r="S19" s="40">
-        <f t="shared" si="4"/>
-        <v>0.15625</v>
-      </c>
-      <c r="T19" s="41">
-        <f t="shared" si="4"/>
-        <v>0.15625</v>
-      </c>
-      <c r="U19" s="35">
-        <f>AVERAGE(Q19:T19)</f>
-        <v>0.15625</v>
-      </c>
-      <c r="W19" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="X19" s="129">
-        <f>U19</f>
-        <v>0.15625</v>
-      </c>
-    </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B20" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="55">
-        <v>3</v>
-      </c>
-      <c r="D20" s="94">
-        <v>1</v>
-      </c>
-      <c r="E20" s="94">
-        <f>E19/D19</f>
-        <v>1.5</v>
-      </c>
-      <c r="F20" s="56">
-        <f>F19/D19</f>
-        <v>7.5</v>
-      </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="49">
-        <f>SUM(C20:F20)</f>
-        <v>13</v>
-      </c>
-      <c r="J20" s="49">
-        <f t="shared" ref="J20:J22" si="5">H20/SUM(H$19:H$22)</f>
-        <v>0.46875</v>
-      </c>
-      <c r="L20" s="103">
-        <f t="shared" ref="L20:L22" si="6">(1/4)*(((C20-AVERAGE(C20:F20))^2)+((D20-AVERAGE(C20:F20))^2)+((E20-AVERAGE(C20:F20))^2)+((C20-AVERAGE(C20:F20))^2))</f>
-        <v>2.0625</v>
-      </c>
-      <c r="P20" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q20" s="42">
-        <f t="shared" ref="Q20:Q22" si="7">C20/C$23</f>
-        <v>0.46875</v>
-      </c>
-      <c r="R20" s="43">
-        <f t="shared" si="4"/>
-        <v>0.46875</v>
-      </c>
-      <c r="S20" s="43">
-        <f t="shared" si="4"/>
-        <v>0.46875</v>
-      </c>
-      <c r="T20" s="44">
-        <f t="shared" si="4"/>
-        <v>0.46875</v>
-      </c>
-      <c r="U20" s="35">
-        <f>AVERAGE(Q20:T20)</f>
-        <v>0.46875</v>
-      </c>
-      <c r="W20" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="X20" s="130">
-        <f>U20</f>
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B21" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="55">
-        <v>2</v>
-      </c>
-      <c r="D21" s="94">
-        <f>1/E20</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E21" s="94">
-        <v>1</v>
-      </c>
-      <c r="F21" s="56">
-        <f>F20/E20</f>
-        <v>5</v>
-      </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="49">
-        <f>SUM(C21:F21)</f>
-        <v>8.6666666666666661</v>
-      </c>
-      <c r="J21" s="49">
-        <f t="shared" si="5"/>
-        <v>0.31249999999999994</v>
-      </c>
-      <c r="L21" s="103">
-        <f t="shared" si="6"/>
-        <v>0.91666666666666652</v>
-      </c>
-      <c r="P21" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q21" s="42">
-        <f t="shared" si="7"/>
-        <v>0.3125</v>
-      </c>
-      <c r="R21" s="43">
-        <f t="shared" si="4"/>
-        <v>0.3125</v>
-      </c>
-      <c r="S21" s="43">
-        <f t="shared" si="4"/>
-        <v>0.3125</v>
-      </c>
-      <c r="T21" s="44">
-        <f t="shared" si="4"/>
-        <v>0.3125</v>
-      </c>
-      <c r="U21" s="35">
-        <f>AVERAGE(Q21:T21)</f>
-        <v>0.3125</v>
-      </c>
-      <c r="W21" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="X21" s="130">
-        <f>U21</f>
-        <v>0.3125</v>
-      </c>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B22" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="73">
-        <v>0.4</v>
-      </c>
-      <c r="D22" s="74">
-        <f>1/F20</f>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="E22" s="74">
-        <f>1/F21</f>
-        <v>0.2</v>
-      </c>
-      <c r="F22" s="75">
-        <v>1</v>
-      </c>
-      <c r="G22" s="43"/>
-      <c r="H22" s="52">
-        <f>SUM(C22:F22)</f>
-        <v>1.7333333333333334</v>
-      </c>
-      <c r="J22" s="52">
-        <f t="shared" si="5"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="L22" s="104">
-        <f t="shared" si="6"/>
-        <v>3.6666666666666674E-2</v>
-      </c>
-      <c r="P22" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q22" s="45">
-        <f t="shared" si="7"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="R22" s="46">
-        <f t="shared" si="4"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="S22" s="46">
-        <f t="shared" si="4"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="T22" s="47">
-        <f t="shared" si="4"/>
-        <v>6.25E-2</v>
-      </c>
-      <c r="U22" s="35">
-        <f>AVERAGE(Q22:T22)</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="W22" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="X22" s="131">
-        <f>U22</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B23" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="43">
-        <f>SUM(C19:C22)</f>
-        <v>6.4</v>
-      </c>
-      <c r="D23" s="43">
-        <f>SUM(D19:D22)</f>
-        <v>2.1333333333333333</v>
-      </c>
-      <c r="E23" s="43">
-        <f>SUM(E19:E22)</f>
-        <v>3.2</v>
-      </c>
-      <c r="F23" s="43">
-        <f>SUM(F19:F22)</f>
-        <v>16</v>
-      </c>
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B25" s="77" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B26" s="120"/>
-      <c r="C26" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" s="122" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="122" t="s">
-        <v>61</v>
-      </c>
-      <c r="F26" s="123" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="J26" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="L26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="R26" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="S26" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="T26" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="U26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="W26" s="128"/>
-      <c r="X26" s="133" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B27" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="55">
-        <v>1</v>
-      </c>
-      <c r="D27" s="94">
-        <f>1/C28</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="E27" s="94">
-        <f>1/C29</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="F27" s="56">
-        <f>1/C30</f>
-        <v>0.5</v>
-      </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="51">
-        <f>SUM(C27:F27)</f>
-        <v>3.5000000000000004</v>
-      </c>
-      <c r="J27" s="51">
-        <f>H27/SUM(H$27:H$30)</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="L27" s="102">
-        <f>(1/4)*(((C27-AVERAGE(C27:F27))^2)+((D27-AVERAGE(C27:F27))^2)+((E27-AVERAGE(C27:F27))^2)+((C27-AVERAGE(C27:F27))^2))</f>
-        <v>0.23784722222222221</v>
-      </c>
-      <c r="N27" s="127">
-        <f>SUM(L27:L30)/4</f>
-        <v>0.85387152777777775</v>
-      </c>
-      <c r="P27" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="39">
-        <f>C27/C$31</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="R27" s="40">
-        <f t="shared" ref="R27:T30" si="8">D27/D$31</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="S27" s="40">
-        <f t="shared" si="8"/>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="T27" s="41">
-        <f t="shared" si="8"/>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="U27" s="35">
-        <f t="shared" ref="U27:U30" si="9">AVERAGE(Q27:T27)</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="W27" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="X27" s="129">
-        <f t="shared" ref="X27:X48" si="10">U27</f>
-        <v>0.15151515151515152</v>
-      </c>
-    </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B28" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C28" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="D28" s="94">
-        <v>1</v>
-      </c>
-      <c r="E28" s="94">
-        <f>E27/D27</f>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="F28" s="56">
-        <f>F27/D27</f>
-        <v>0.3</v>
-      </c>
-      <c r="G28" s="43"/>
-      <c r="H28" s="49">
-        <f>SUM(C28:F28)</f>
-        <v>2.1</v>
-      </c>
-      <c r="J28" s="49">
-        <f t="shared" ref="J28:J30" si="11">H28/SUM(H$27:H$30)</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="L28" s="103">
-        <f t="shared" ref="L28:L30" si="12">(1/4)*(((C28-AVERAGE(C28:F28))^2)+((D28-AVERAGE(C28:F28))^2)+((E28-AVERAGE(C28:F28))^2)+((C28-AVERAGE(C28:F28))^2))</f>
-        <v>8.5625000000000007E-2</v>
-      </c>
-      <c r="P28" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q28" s="42">
-        <f t="shared" ref="Q28:Q30" si="13">C28/C$31</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="R28" s="43">
-        <f t="shared" si="8"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="S28" s="43">
-        <f t="shared" si="8"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="T28" s="44">
-        <f t="shared" si="8"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="U28" s="35">
-        <f t="shared" si="9"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="W28" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="X28" s="130">
-        <f t="shared" si="10"/>
-        <v>9.0909090909090912E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B29" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" s="55">
-        <v>3</v>
-      </c>
-      <c r="D29" s="94">
-        <f>1/E28</f>
-        <v>5</v>
-      </c>
-      <c r="E29" s="94">
-        <v>1</v>
-      </c>
-      <c r="F29" s="56">
-        <f>F28/E28</f>
-        <v>1.5</v>
-      </c>
-      <c r="G29" s="43"/>
-      <c r="H29" s="49">
-        <f>SUM(C29:F29)</f>
-        <v>10.5</v>
-      </c>
-      <c r="J29" s="49">
-        <f t="shared" si="11"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="L29" s="103">
-        <f t="shared" si="12"/>
-        <v>2.140625</v>
-      </c>
-      <c r="P29" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q29" s="42">
-        <f t="shared" si="13"/>
-        <v>0.45454545454545459</v>
-      </c>
-      <c r="R29" s="43">
-        <f t="shared" si="8"/>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="S29" s="43">
-        <f t="shared" si="8"/>
-        <v>0.45454545454545459</v>
-      </c>
-      <c r="T29" s="44">
-        <f t="shared" si="8"/>
-        <v>0.45454545454545459</v>
-      </c>
-      <c r="U29" s="35">
-        <f>AVERAGE(Q29:T29)</f>
-        <v>0.45454545454545459</v>
-      </c>
-      <c r="W29" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="X29" s="130">
-        <f>U29</f>
-        <v>0.45454545454545459</v>
-      </c>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B30" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="73">
-        <v>2</v>
-      </c>
-      <c r="D30" s="74">
-        <f>1/F28</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E30" s="74">
-        <f>1/F29</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="F30" s="75">
-        <v>1</v>
-      </c>
-      <c r="G30" s="43"/>
-      <c r="H30" s="52">
-        <f>SUM(C30:F30)</f>
-        <v>7.0000000000000009</v>
-      </c>
-      <c r="J30" s="52">
-        <f t="shared" si="11"/>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="L30" s="104">
-        <f t="shared" si="12"/>
-        <v>0.95138888888888884</v>
-      </c>
-      <c r="P30" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q30" s="45">
-        <f t="shared" si="13"/>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="R30" s="46">
-        <f t="shared" si="8"/>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="S30" s="46">
-        <f t="shared" si="8"/>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="T30" s="47">
-        <f t="shared" si="8"/>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="U30" s="35">
-        <f t="shared" si="9"/>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="W30" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="X30" s="131">
-        <f t="shared" si="10"/>
-        <v>0.30303030303030304</v>
-      </c>
-    </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B31" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="43">
-        <f>SUM(C27:C30)</f>
-        <v>6.6</v>
-      </c>
-      <c r="D31" s="43">
-        <f>SUM(D27:D30)</f>
-        <v>11</v>
-      </c>
-      <c r="E31" s="43">
-        <f>SUM(E27:E30)</f>
-        <v>2.1999999999999997</v>
-      </c>
-      <c r="F31" s="43">
-        <f>SUM(F27:F30)</f>
-        <v>3.3</v>
-      </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B33" s="77" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="118" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="118" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="118" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" s="119" t="s">
-        <v>62</v>
-      </c>
-      <c r="H34" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="J34" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="L34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="R34" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="S34" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="T34" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="U34" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="W34" s="128"/>
-      <c r="X34" s="133" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B35" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="70">
-        <v>1</v>
-      </c>
-      <c r="D35" s="71">
-        <f>1/C36</f>
-        <v>1.25</v>
-      </c>
-      <c r="E35" s="71">
-        <f>1/C37</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="F35" s="72">
-        <f>1/C38</f>
-        <v>2.5</v>
-      </c>
-      <c r="G35" s="43"/>
-      <c r="H35" s="51">
-        <f>SUM(C35:F35)</f>
-        <v>6.416666666666667</v>
-      </c>
-      <c r="J35" s="51">
-        <f>H35/SUM(H$35:H$38)</f>
-        <v>0.3571428571428571</v>
-      </c>
-      <c r="L35" s="102">
-        <f>(1/4)*(((C35-AVERAGE(C35:F35))^2)+((D35-AVERAGE(C35:F35))^2)+((E35-AVERAGE(C35:F35))^2)+((C35-AVERAGE(C35:F35))^2))</f>
-        <v>0.21484375000000006</v>
-      </c>
-      <c r="N35" s="127">
-        <f>SUM(L35:L38)/4</f>
-        <v>0.11601562500000001</v>
-      </c>
-      <c r="P35" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q35" s="39">
-        <f>C35/C$39</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="R35" s="40">
-        <f t="shared" ref="R35:T38" si="14">D35/D$39</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="S35" s="40">
-        <f t="shared" si="14"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="T35" s="41">
-        <f t="shared" si="14"/>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="U35" s="35">
-        <f t="shared" ref="U35:U38" si="15">AVERAGE(Q35:T35)</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="W35" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="X35" s="129">
-        <f t="shared" ref="X35:X48" si="16">U35</f>
-        <v>0.35714285714285715</v>
-      </c>
-    </row>
-    <row r="36" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B36" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="55">
-        <v>0.8</v>
-      </c>
-      <c r="D36" s="94">
-        <v>1</v>
-      </c>
-      <c r="E36" s="94">
-        <f>E35/D35</f>
-        <v>1.3333333333333335</v>
-      </c>
-      <c r="F36" s="56">
-        <f>F35/D35</f>
-        <v>2</v>
-      </c>
-      <c r="G36" s="43"/>
-      <c r="H36" s="49">
-        <f>SUM(C36:F36)</f>
-        <v>5.1333333333333337</v>
-      </c>
-      <c r="J36" s="49">
-        <f t="shared" ref="J36:J38" si="17">H36/SUM(H$35:H$38)</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L36" s="103">
-        <f t="shared" ref="L36:L38" si="18">(1/4)*(((C36-AVERAGE(C36:F36))^2)+((D36-AVERAGE(C36:F36))^2)+((E36-AVERAGE(C36:F36))^2)+((C36-AVERAGE(C36:F36))^2))</f>
-        <v>0.13750000000000004</v>
-      </c>
-      <c r="P36" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q36" s="42">
-        <f t="shared" ref="Q36:Q38" si="19">C36/C$39</f>
-        <v>0.28571428571428575</v>
-      </c>
-      <c r="R36" s="43">
-        <f t="shared" si="14"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="S36" s="43">
-        <f t="shared" si="14"/>
-        <v>0.28571428571428575</v>
-      </c>
-      <c r="T36" s="44">
-        <f t="shared" si="14"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="U36" s="35">
-        <f t="shared" si="15"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="W36" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="X36" s="130">
-        <f t="shared" si="16"/>
-        <v>0.2857142857142857</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B37" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="D37" s="94">
-        <f>1/E36</f>
-        <v>0.74999999999999989</v>
-      </c>
-      <c r="E37" s="94">
-        <v>1</v>
-      </c>
-      <c r="F37" s="56">
-        <f>F36/E36</f>
-        <v>1.4999999999999998</v>
-      </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="49">
-        <f>SUM(C37:F37)</f>
-        <v>3.8499999999999996</v>
-      </c>
-      <c r="J37" s="49">
-        <f t="shared" si="17"/>
-        <v>0.21428571428571425</v>
-      </c>
-      <c r="L37" s="103">
-        <f t="shared" si="18"/>
-        <v>7.7343749999999975E-2</v>
-      </c>
-      <c r="P37" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q37" s="42">
-        <f t="shared" si="19"/>
-        <v>0.2142857142857143</v>
-      </c>
-      <c r="R37" s="43">
-        <f t="shared" si="14"/>
-        <v>0.21428571428571425</v>
-      </c>
-      <c r="S37" s="43">
-        <f t="shared" si="14"/>
-        <v>0.21428571428571427</v>
-      </c>
-      <c r="T37" s="44">
-        <f t="shared" si="14"/>
-        <v>0.21428571428571425</v>
-      </c>
-      <c r="U37" s="35">
-        <f t="shared" si="15"/>
-        <v>0.21428571428571425</v>
-      </c>
-      <c r="W37" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="X37" s="130">
-        <f t="shared" si="16"/>
-        <v>0.21428571428571425</v>
-      </c>
-    </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B38" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="73">
-        <v>0.4</v>
-      </c>
-      <c r="D38" s="74">
-        <f>1/F36</f>
-        <v>0.5</v>
-      </c>
-      <c r="E38" s="74">
-        <f>1/F37</f>
-        <v>0.66666666666666674</v>
-      </c>
-      <c r="F38" s="75">
-        <v>1</v>
-      </c>
-      <c r="G38" s="43"/>
-      <c r="H38" s="52">
-        <f>SUM(C38:F38)</f>
-        <v>2.5666666666666669</v>
-      </c>
-      <c r="J38" s="52">
-        <f t="shared" si="17"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="L38" s="104">
-        <f t="shared" si="18"/>
-        <v>3.437500000000001E-2</v>
-      </c>
-      <c r="P38" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q38" s="45">
-        <f t="shared" si="19"/>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="R38" s="46">
-        <f t="shared" si="14"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="S38" s="46">
-        <f t="shared" si="14"/>
-        <v>0.14285714285714288</v>
-      </c>
-      <c r="T38" s="47">
-        <f t="shared" si="14"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="U38" s="35">
-        <f t="shared" si="15"/>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="W38" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="X38" s="131">
-        <f t="shared" si="16"/>
-        <v>0.14285714285714285</v>
-      </c>
-    </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B39" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="43">
-        <f>SUM(C35:C38)</f>
-        <v>2.8</v>
-      </c>
-      <c r="D39" s="43">
-        <f>SUM(D35:D38)</f>
-        <v>3.5</v>
-      </c>
-      <c r="E39" s="43">
-        <f>SUM(E35:E38)</f>
-        <v>4.666666666666667</v>
-      </c>
-      <c r="F39" s="43">
-        <f>SUM(F35:F38)</f>
-        <v>7</v>
-      </c>
-      <c r="G39" s="43"/>
-      <c r="H39" s="43"/>
-      <c r="I39" s="43"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B41" s="77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="118">
-        <v>1</v>
-      </c>
-      <c r="D42" s="118">
-        <v>2</v>
-      </c>
-      <c r="E42" s="118">
-        <v>3</v>
-      </c>
-      <c r="F42" s="119">
-        <v>4</v>
-      </c>
-      <c r="H42" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="J42" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="L42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="R42" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="S42" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="T42" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="U42" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="W42" s="128"/>
-      <c r="X42" s="133" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B43" s="132" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="70">
-        <v>1</v>
-      </c>
-      <c r="D43" s="71">
-        <f>1/C44</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="E43" s="71">
-        <f>1/C45</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="F43" s="72">
-        <f>1/C46</f>
-        <v>0.5</v>
-      </c>
-      <c r="G43" s="43"/>
-      <c r="H43" s="51">
-        <f>SUM(C43:F43)</f>
-        <v>6.5</v>
-      </c>
-      <c r="J43" s="51">
-        <f>H43/SUM(H$43:H$46)</f>
-        <v>0.25641025641025639</v>
-      </c>
-      <c r="L43" s="102">
-        <f>(1/4)*(((C43-AVERAGE(C43:F43))^2)+((D43-AVERAGE(C43:F43))^2)+((E43-AVERAGE(C43:F43))^2)+((C43-AVERAGE(C43:F43))^2))</f>
-        <v>0.92534722222222232</v>
-      </c>
-      <c r="N43" s="127">
-        <f>SUM(L43:L46)/4</f>
-        <v>1.2607855902777778</v>
-      </c>
-      <c r="P43" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q43" s="39">
-        <f>C43/C$47</f>
-        <v>0.25641025641025639</v>
-      </c>
-      <c r="R43" s="40">
-        <f t="shared" ref="R43:T46" si="20">D43/D$47</f>
-        <v>0.25641025641025644</v>
-      </c>
-      <c r="S43" s="40">
-        <f t="shared" si="20"/>
-        <v>0.25641025641025644</v>
-      </c>
-      <c r="T43" s="41">
-        <f t="shared" si="20"/>
-        <v>0.25641025641025639</v>
-      </c>
-      <c r="U43" s="35">
-        <f t="shared" ref="U43:U46" si="21">AVERAGE(Q43:T43)</f>
-        <v>0.25641025641025639</v>
-      </c>
-      <c r="W43" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="X43" s="129">
-        <f t="shared" ref="X43:X46" si="22">U43</f>
-        <v>0.25641025641025639</v>
-      </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B44" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" s="55">
-        <v>0.6</v>
-      </c>
-      <c r="D44" s="94">
-        <v>1</v>
-      </c>
-      <c r="E44" s="94">
-        <f>E43/D43</f>
-        <v>2</v>
-      </c>
-      <c r="F44" s="56">
-        <f>F43/D43</f>
-        <v>0.3</v>
-      </c>
-      <c r="G44" s="43"/>
-      <c r="H44" s="49">
-        <f>SUM(C44:F44)</f>
-        <v>3.9</v>
-      </c>
-      <c r="J44" s="49">
-        <f t="shared" ref="J44:J46" si="23">H44/SUM(H$43:H$46)</f>
-        <v>0.15384615384615383</v>
-      </c>
-      <c r="L44" s="103">
-        <f t="shared" ref="L44:L46" si="24">(1/4)*(((C44-AVERAGE(C44:F44))^2)+((D44-AVERAGE(C44:F44))^2)+((E44-AVERAGE(C44:F44))^2)+((C44-AVERAGE(C44:F44))^2))</f>
-        <v>0.333125</v>
-      </c>
-      <c r="P44" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q44" s="42">
-        <f t="shared" ref="Q44:Q46" si="25">C44/C$47</f>
-        <v>0.15384615384615383</v>
-      </c>
-      <c r="R44" s="43">
-        <f t="shared" si="20"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="S44" s="43">
-        <f t="shared" si="20"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="T44" s="44">
-        <f t="shared" si="20"/>
-        <v>0.15384615384615383</v>
-      </c>
-      <c r="U44" s="35">
-        <f t="shared" si="21"/>
-        <v>0.15384615384615385</v>
-      </c>
-      <c r="W44" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="X44" s="130">
-        <f t="shared" si="22"/>
-        <v>0.15384615384615385</v>
-      </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B45" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="55">
-        <v>0.3</v>
-      </c>
-      <c r="D45" s="94">
-        <f>1/E44</f>
-        <v>0.5</v>
-      </c>
-      <c r="E45" s="94">
-        <v>1</v>
-      </c>
-      <c r="F45" s="56">
-        <f>F44/E44</f>
-        <v>0.15</v>
-      </c>
-      <c r="G45" s="43"/>
-      <c r="H45" s="49">
-        <f>SUM(C45:F45)</f>
-        <v>1.95</v>
-      </c>
-      <c r="J45" s="49">
-        <f t="shared" si="23"/>
-        <v>7.6923076923076913E-2</v>
-      </c>
-      <c r="L45" s="103">
-        <f t="shared" si="24"/>
-        <v>8.3281250000000001E-2</v>
-      </c>
-      <c r="P45" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q45" s="42">
-        <f t="shared" si="25"/>
-        <v>7.6923076923076913E-2</v>
-      </c>
-      <c r="R45" s="43">
-        <f t="shared" si="20"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="S45" s="43">
-        <f t="shared" si="20"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="T45" s="44">
-        <f t="shared" si="20"/>
-        <v>7.6923076923076913E-2</v>
-      </c>
-      <c r="U45" s="35">
-        <f t="shared" si="21"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-      <c r="W45" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="X45" s="130">
-        <f t="shared" si="22"/>
-        <v>7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B46" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="73">
-        <v>2</v>
-      </c>
-      <c r="D46" s="74">
-        <f>1/F44</f>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="E46" s="74">
-        <f>1/F45</f>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="F46" s="75">
-        <v>1</v>
-      </c>
-      <c r="G46" s="43"/>
-      <c r="H46" s="52">
-        <f>SUM(C46:F46)</f>
-        <v>13</v>
-      </c>
-      <c r="J46" s="52">
-        <f t="shared" si="23"/>
-        <v>0.51282051282051277</v>
-      </c>
-      <c r="L46" s="104">
-        <f t="shared" si="24"/>
-        <v>3.7013888888888893</v>
-      </c>
-      <c r="P46" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q46" s="45">
-        <f t="shared" si="25"/>
-        <v>0.51282051282051277</v>
-      </c>
-      <c r="R46" s="46">
-        <f t="shared" si="20"/>
-        <v>0.51282051282051289</v>
-      </c>
-      <c r="S46" s="46">
-        <f t="shared" si="20"/>
-        <v>0.51282051282051289</v>
-      </c>
-      <c r="T46" s="47">
-        <f t="shared" si="20"/>
-        <v>0.51282051282051277</v>
-      </c>
-      <c r="U46" s="35">
-        <f t="shared" si="21"/>
-        <v>0.51282051282051277</v>
-      </c>
-      <c r="W46" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="X46" s="131">
-        <f t="shared" si="22"/>
-        <v>0.51282051282051277</v>
-      </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B47" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="43">
-        <f>SUM(C43:C46)</f>
-        <v>3.9000000000000004</v>
-      </c>
-      <c r="D47" s="43">
-        <f>SUM(D43:D46)</f>
-        <v>6.5</v>
-      </c>
-      <c r="E47" s="43">
-        <f>SUM(E43:E46)</f>
-        <v>13</v>
-      </c>
-      <c r="F47" s="43">
-        <f>SUM(F43:F46)</f>
-        <v>1.9500000000000002</v>
-      </c>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-    </row>
-    <row r="50" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B50" s="120"/>
-      <c r="C50" s="124">
-        <v>1</v>
-      </c>
-      <c r="D50" s="125">
-        <v>2</v>
-      </c>
-      <c r="E50" s="125">
-        <v>3</v>
-      </c>
-      <c r="F50" s="126">
-        <v>4</v>
-      </c>
-      <c r="H50" s="2"/>
-      <c r="J50" s="2"/>
-    </row>
-    <row r="51" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B51" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C51" s="42">
-        <f>$J11</f>
-        <v>0.25</v>
-      </c>
-      <c r="D51" s="94">
-        <f>$J19</f>
-        <v>0.15624999999999997</v>
-      </c>
-      <c r="E51" s="94">
-        <f>$J27</f>
-        <v>0.15151515151515152</v>
-      </c>
-      <c r="F51" s="44">
-        <f>$J35</f>
-        <v>0.3571428571428571</v>
-      </c>
-      <c r="H51" s="99">
-        <f>$J43</f>
-        <v>0.25641025641025639</v>
-      </c>
-      <c r="J51" s="102">
-        <f t="array" ref="J51:J54">MMULT(C51:F54,H51:H54)</f>
-        <v>0.28294622044622042</v>
-      </c>
-    </row>
-    <row r="52" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B52" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C52" s="42">
-        <f>$J12</f>
-        <v>0.37500000000000006</v>
-      </c>
-      <c r="D52" s="43">
-        <f>$J20</f>
-        <v>0.46875</v>
-      </c>
-      <c r="E52" s="43">
-        <f>$J28</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="F52" s="44">
-        <f>$J36</f>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G52" s="81" t="s">
-        <v>34</v>
-      </c>
-      <c r="H52" s="100">
-        <f>$J44</f>
-        <v>0.15384615384615383</v>
-      </c>
-      <c r="I52" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="J52" s="103">
-        <v>0.32178238428238426</v>
-      </c>
-      <c r="K52" s="82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B53" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="42">
-        <f>$J13</f>
-        <v>0.17500000000000002</v>
-      </c>
-      <c r="D53" s="43">
-        <f>$J21</f>
-        <v>0.31249999999999994</v>
-      </c>
-      <c r="E53" s="43">
-        <f>$J29</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="F53" s="44">
-        <f>$J37</f>
-        <v>0.21428571428571425</v>
-      </c>
-      <c r="H53" s="100">
-        <f>$J45</f>
-        <v>7.6923076923076913E-2</v>
-      </c>
-      <c r="J53" s="103">
-        <v>0.23780386280386276</v>
-      </c>
-    </row>
-    <row r="54" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B54" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="45">
-        <f>$J14</f>
-        <v>0.2</v>
-      </c>
-      <c r="D54" s="46">
-        <f>$J22</f>
-        <v>6.25E-2</v>
-      </c>
-      <c r="E54" s="46">
-        <f>$J30</f>
-        <v>0.30303030303030304</v>
-      </c>
-      <c r="F54" s="47">
-        <f>$J38</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="H54" s="101">
-        <f>$J46</f>
-        <v>0.51282051282051277</v>
-      </c>
-      <c r="J54" s="104">
-        <v>0.15746753246753245</v>
-      </c>
-    </row>
-    <row r="59" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B59" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-    </row>
-    <row r="60" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-      <c r="C60" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="E60" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="F60" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" s="105" t="s">
-        <v>79</v>
-      </c>
-      <c r="L60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="107" t="s">
-        <v>59</v>
-      </c>
-      <c r="R60" s="107" t="s">
-        <v>60</v>
-      </c>
-      <c r="S60" s="107" t="s">
-        <v>61</v>
-      </c>
-      <c r="T60" s="108" t="s">
-        <v>62</v>
-      </c>
-      <c r="U60" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="W60" s="128"/>
-      <c r="X60" s="133" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="61" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B61" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="39">
-        <v>1</v>
-      </c>
-      <c r="D61" s="40">
-        <v>4</v>
-      </c>
-      <c r="E61" s="40">
-        <v>0.25</v>
-      </c>
-      <c r="F61" s="41">
-        <v>5</v>
-      </c>
-      <c r="H61" s="99">
-        <f>SUM(C61:F61)</f>
-        <v>10.25</v>
-      </c>
-      <c r="I61" s="43"/>
-      <c r="J61" s="102">
-        <f>H61/SUM(H$61:H$64)</f>
-        <v>0.32376941300342199</v>
-      </c>
-      <c r="L61" s="102">
-        <f>(1/4)*(((C61-AVERAGE(C61:F61))^2)+((D61-AVERAGE(C61:F61))^2)+((E61-AVERAGE(C61:F61))^2)+((C61-AVERAGE(C61:F61))^2))</f>
-        <v>3.07421875</v>
-      </c>
-      <c r="N61" s="127">
-        <f>SUM(L61:L64)/4</f>
-        <v>1.9450032552083334</v>
-      </c>
-      <c r="P61" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q61" s="39">
-        <f>C61/C$65</f>
-        <v>0.18348623853211007</v>
-      </c>
-      <c r="R61" s="40">
-        <f>D61/D$65</f>
-        <v>0.68571428571428572</v>
-      </c>
-      <c r="S61" s="40">
-        <f>E61/E$65</f>
-        <v>7.407407407407407E-2</v>
-      </c>
-      <c r="T61" s="41">
-        <f>F61/F$65</f>
-        <v>0.29411764705882354</v>
-      </c>
-      <c r="U61" s="35">
-        <f>AVERAGE(Q61:T61)</f>
-        <v>0.30934806134482334</v>
-      </c>
-      <c r="W61" s="67" t="s">
-        <v>59</v>
-      </c>
-      <c r="X61" s="129">
-        <f t="shared" ref="X61:X64" si="26">U61</f>
-        <v>0.30934806134482334</v>
-      </c>
-    </row>
-    <row r="62" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B62" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C62" s="42">
-        <f>1/D61</f>
-        <v>0.25</v>
-      </c>
-      <c r="D62" s="43">
-        <v>1</v>
-      </c>
-      <c r="E62" s="43">
-        <v>2</v>
-      </c>
-      <c r="F62" s="44">
-        <v>3</v>
-      </c>
-      <c r="H62" s="100">
-        <f>SUM(C62:F62)</f>
-        <v>6.25</v>
-      </c>
-      <c r="I62" s="43"/>
-      <c r="J62" s="103">
-        <f>H62/SUM(H$61:H$64)</f>
-        <v>0.19742037378257438</v>
-      </c>
-      <c r="L62" s="103">
-        <f>(1/4)*(((C62-AVERAGE(C62:F62))^2)+((D62-AVERAGE(C62:F62))^2)+((E62-AVERAGE(C62:F62))^2)+((C62-AVERAGE(C62:F62))^2))</f>
-        <v>0.98828125</v>
-      </c>
-      <c r="P62" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q62" s="42">
-        <f>C62/C$65</f>
-        <v>4.5871559633027519E-2</v>
-      </c>
-      <c r="R62" s="43">
-        <f>D62/D$65</f>
-        <v>0.17142857142857143</v>
-      </c>
-      <c r="S62" s="43">
-        <f>E62/E$65</f>
-        <v>0.59259259259259256</v>
-      </c>
-      <c r="T62" s="44">
-        <f>F62/F$65</f>
-        <v>0.17647058823529413</v>
-      </c>
-      <c r="U62" s="35">
-        <f>AVERAGE(Q62:T62)</f>
-        <v>0.24659082797237142</v>
-      </c>
-      <c r="W62" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="X62" s="130">
-        <f t="shared" si="26"/>
-        <v>0.24659082797237142</v>
-      </c>
-    </row>
-    <row r="63" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B63" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" s="42">
-        <f>1/E61</f>
-        <v>4</v>
-      </c>
-      <c r="D63" s="43">
-        <f>1/E62</f>
-        <v>0.5</v>
-      </c>
-      <c r="E63" s="43">
-        <v>1</v>
-      </c>
-      <c r="F63" s="44">
-        <v>8</v>
-      </c>
-      <c r="H63" s="100">
-        <f>SUM(C63:F63)</f>
-        <v>13.5</v>
-      </c>
-      <c r="I63" s="43"/>
-      <c r="J63" s="103">
-        <f>H63/SUM(H$61:H$64)</f>
-        <v>0.42642800737036063</v>
-      </c>
-      <c r="L63" s="103">
-        <f t="shared" ref="L62:L64" si="27">(1/4)*(((C63-AVERAGE(C63:F63))^2)+((D63-AVERAGE(C63:F63))^2)+((E63-AVERAGE(C63:F63))^2)+((C63-AVERAGE(C63:F63))^2))</f>
-        <v>3.671875</v>
-      </c>
-      <c r="P63" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q63" s="42">
-        <f>C63/C$65</f>
-        <v>0.7339449541284403</v>
-      </c>
-      <c r="R63" s="43">
-        <f>D63/D$65</f>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="S63" s="43">
-        <f>E63/E$65</f>
-        <v>0.29629629629629628</v>
-      </c>
-      <c r="T63" s="44">
-        <f>F63/F$65</f>
-        <v>0.47058823529411764</v>
-      </c>
-      <c r="U63" s="35">
-        <f>AVERAGE(Q63:T63)</f>
-        <v>0.39663594285828496</v>
-      </c>
-      <c r="W63" s="67" t="s">
-        <v>61</v>
-      </c>
-      <c r="X63" s="130">
-        <f t="shared" si="26"/>
-        <v>0.39663594285828496</v>
-      </c>
-    </row>
-    <row r="64" spans="2:24" x14ac:dyDescent="0.3">
-      <c r="B64" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64" s="45">
-        <f>1/F61</f>
-        <v>0.2</v>
-      </c>
-      <c r="D64" s="46">
-        <f>1/F62</f>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="E64" s="46">
-        <f>1/F63</f>
-        <v>0.125</v>
-      </c>
-      <c r="F64" s="47">
-        <v>1</v>
-      </c>
-      <c r="H64" s="101">
-        <f>SUM(C64:F64)</f>
-        <v>1.6583333333333332</v>
-      </c>
-      <c r="I64" s="43"/>
-      <c r="J64" s="104">
-        <f>H64/SUM(H$61:H$64)</f>
-        <v>5.2382205843643066E-2</v>
-      </c>
-      <c r="L64" s="104">
-        <f t="shared" si="27"/>
-        <v>4.563802083333332E-2</v>
-      </c>
-      <c r="P64" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q64" s="45">
-        <f>C64/C$65</f>
-        <v>3.669724770642202E-2</v>
-      </c>
-      <c r="R64" s="46">
-        <f>D64/D$65</f>
-        <v>5.7142857142857141E-2</v>
-      </c>
-      <c r="S64" s="46">
-        <f>E64/E$65</f>
-        <v>3.7037037037037035E-2</v>
-      </c>
-      <c r="T64" s="47">
-        <f>F64/F$65</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="U64" s="35">
-        <f>AVERAGE(Q64:T64)</f>
-        <v>4.742516782452022E-2</v>
-      </c>
-      <c r="W64" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="X64" s="131">
-        <f t="shared" si="26"/>
-        <v>4.742516782452022E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.3">
-      <c r="C65" s="35">
-        <f>SUM(C61:C64)</f>
-        <v>5.45</v>
-      </c>
-      <c r="D65" s="35">
-        <f>SUM(D61:D64)</f>
-        <v>5.833333333333333</v>
-      </c>
-      <c r="E65" s="35">
-        <f>SUM(E61:E64)</f>
-        <v>3.375</v>
-      </c>
-      <c r="F65" s="35">
-        <f>SUM(F61:F64)</f>
-        <v>17</v>
+      <c r="C58" s="45">
+        <f>$J18</f>
+        <v>0.2880831613489544</v>
+      </c>
+      <c r="D58" s="46">
+        <f>$J26</f>
+        <v>6.5966439265799454E-2</v>
+      </c>
+      <c r="E58" s="46">
+        <f>$J34</f>
+        <v>0.31510426243977785</v>
+      </c>
+      <c r="F58" s="47">
+        <f>$J42</f>
+        <v>4.6817226479236633E-2</v>
+      </c>
+      <c r="H58" s="95">
+        <f>$J50</f>
+        <v>0.17370430356316521</v>
+      </c>
+      <c r="J58" s="98">
+        <v>0.16373861002451115</v>
       </c>
     </row>
   </sheetData>
